--- a/CR - Cost Report/BOM/FR/FRA0100_to_FRA0300.xlsx
+++ b/CR - Cost Report/BOM/FR/FRA0100_to_FRA0300.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21601"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Optimus_2019\STUF2019\CR - Cost Report\BOM\FR\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\robin\Documents\Cours centrale\EPSA\Optimus\STUF2019\CR - Cost Report\BOM\FR\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C38EEDD2-0B6A-4FAB-95F2-740F7A83DDF9}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9192"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="44">
   <si>
     <t>System</t>
   </si>
@@ -102,12 +103,6 @@
     <t>FR_01004</t>
   </si>
   <si>
-    <t>FR_01005</t>
-  </si>
-  <si>
-    <t>FR_01006</t>
-  </si>
-  <si>
     <t>FR_02001</t>
   </si>
   <si>
@@ -143,11 +138,56 @@
       <t>(25 caractères max!)</t>
     </r>
   </si>
+  <si>
+    <t>b</t>
+  </si>
+  <si>
+    <t>Classic impact attenuator provided by the event</t>
+  </si>
+  <si>
+    <t>m</t>
+  </si>
+  <si>
+    <t>Anti-Intrusion plate</t>
+  </si>
+  <si>
+    <t>Round bent steel tubing</t>
+  </si>
+  <si>
+    <t>Square steel tubing</t>
+  </si>
+  <si>
+    <t>Bracket jacking bar</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sleeved joint </t>
+  </si>
+  <si>
+    <t>FR_03002</t>
+  </si>
+  <si>
+    <t>Steel aluminium plate (thickness 1,5mm)</t>
+  </si>
+  <si>
+    <t>25CrMo4 ;  30*2 (mm)</t>
+  </si>
+  <si>
+    <t>25CrMo4 ; 20*20*1,5 (mm)</t>
+  </si>
+  <si>
+    <t>25CrMo4 ; 30*1,5, 25*1,5, 20*15, 15*1,5 (mm)</t>
+  </si>
+  <si>
+    <t>Round steel tubing</t>
+  </si>
+  <si>
+    <t>S350 ; Rules compliant sleeved joints</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -559,27 +599,27 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G17"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:G16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C5" sqref="C5"/>
+      <selection pane="bottomLeft" activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.6640625" customWidth="1"/>
-    <col min="2" max="2" width="26.21875" customWidth="1"/>
-    <col min="3" max="3" width="22.88671875" customWidth="1"/>
-    <col min="4" max="4" width="23.33203125" customWidth="1"/>
-    <col min="5" max="5" width="45.88671875" customWidth="1"/>
-    <col min="6" max="6" width="14.77734375" customWidth="1"/>
-    <col min="7" max="7" width="16.88671875" customWidth="1"/>
-    <col min="8" max="8" width="11.5546875" customWidth="1"/>
+    <col min="1" max="1" width="14.7109375" customWidth="1"/>
+    <col min="2" max="2" width="26.28515625" customWidth="1"/>
+    <col min="3" max="3" width="22.85546875" customWidth="1"/>
+    <col min="4" max="4" width="23.28515625" customWidth="1"/>
+    <col min="5" max="5" width="45.85546875" customWidth="1"/>
+    <col min="6" max="6" width="14.7109375" customWidth="1"/>
+    <col min="7" max="7" width="16.85546875" customWidth="1"/>
+    <col min="8" max="8" width="11.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="19.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:7" ht="19.149999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -587,7 +627,7 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>2</v>
@@ -602,7 +642,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
         <v>10</v>
       </c>
@@ -617,136 +657,134 @@
         <v>14</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="4"/>
       <c r="B3" s="4"/>
       <c r="C3" s="5" t="s">
-        <v>6</v>
+        <v>42</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>7</v>
+        <v>31</v>
       </c>
       <c r="E3" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="F3" s="5" t="s">
-        <v>9</v>
+        <v>41</v>
+      </c>
+      <c r="F3" s="5">
+        <v>87</v>
       </c>
       <c r="G3" s="5" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="4"/>
       <c r="B4" s="4"/>
       <c r="C4" s="5" t="s">
-        <v>6</v>
+        <v>34</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>7</v>
+        <v>31</v>
       </c>
       <c r="E4" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="F4" s="5" t="s">
-        <v>9</v>
+        <v>40</v>
+      </c>
+      <c r="F4" s="5">
+        <v>1</v>
       </c>
       <c r="G4" s="5" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="4"/>
       <c r="B5" s="4"/>
       <c r="C5" s="5" t="s">
-        <v>6</v>
+        <v>33</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>7</v>
+        <v>31</v>
       </c>
       <c r="E5" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="F5" s="5" t="s">
-        <v>9</v>
+        <v>39</v>
+      </c>
+      <c r="F5" s="5">
+        <v>2</v>
       </c>
       <c r="G5" s="5" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="4"/>
       <c r="B6" s="4"/>
       <c r="C6" s="5" t="s">
-        <v>6</v>
+        <v>36</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>7</v>
+        <v>31</v>
       </c>
       <c r="E6" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="F6" s="5" t="s">
-        <v>9</v>
+        <v>43</v>
+      </c>
+      <c r="F6" s="5">
+        <v>2</v>
       </c>
       <c r="G6" s="5" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="4"/>
-      <c r="B7" s="4"/>
-      <c r="C7" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="D7" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="E7" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="F7" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="G7" s="5" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C7" s="3"/>
+      <c r="D7" s="3"/>
+      <c r="E7" s="3"/>
+      <c r="F7" s="3"/>
+      <c r="G7" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="4"/>
       <c r="B8" s="4"/>
       <c r="C8" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="D8" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="E8" s="5"/>
+      <c r="F8" s="5">
+        <v>2</v>
+      </c>
+      <c r="G8" s="5" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="4"/>
+      <c r="B9" s="4"/>
+      <c r="C9" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="D8" s="5" t="s">
+      <c r="D9" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="E8" s="5" t="s">
+      <c r="E9" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="F8" s="5" t="s">
+      <c r="F9" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="G8" s="5" t="s">
+      <c r="G9" s="5" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="9" spans="1:7" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="B9" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C9" s="3"/>
-      <c r="D9" s="3"/>
-      <c r="E9" s="3"/>
-      <c r="F9" s="3"/>
-      <c r="G9" s="3" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="4"/>
       <c r="B10" s="4"/>
       <c r="C10" s="5" t="s">
@@ -765,7 +803,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="11" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="4"/>
       <c r="B11" s="4"/>
       <c r="C11" s="5" t="s">
@@ -784,7 +822,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="12" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="4"/>
       <c r="B12" s="4"/>
       <c r="C12" s="5" t="s">
@@ -803,7 +841,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="13" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="4"/>
       <c r="B13" s="4"/>
       <c r="C13" s="5" t="s">
@@ -822,76 +860,57 @@
         <v>26</v>
       </c>
     </row>
-    <row r="14" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="4"/>
-      <c r="B14" s="4"/>
-      <c r="C14" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="D14" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="E14" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="F14" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="G14" s="5" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C14" s="3"/>
+      <c r="D14" s="3"/>
+      <c r="E14" s="3"/>
+      <c r="F14" s="3"/>
+      <c r="G14" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="4"/>
       <c r="B15" s="4"/>
       <c r="C15" s="5" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="D15" s="5" t="s">
-        <v>7</v>
+        <v>29</v>
       </c>
       <c r="E15" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="F15" s="5" t="s">
-        <v>9</v>
+        <v>30</v>
+      </c>
+      <c r="F15" s="5">
+        <v>1</v>
       </c>
       <c r="G15" s="5" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A16" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="B16" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="C16" s="3"/>
-      <c r="D16" s="3"/>
-      <c r="E16" s="3"/>
-      <c r="F16" s="3"/>
-      <c r="G16" s="3" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A17" s="4"/>
-      <c r="B17" s="4"/>
-      <c r="C17" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="D17" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="E17" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="F17" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="G17" s="5" t="s">
-        <v>29</v>
+        <v>27</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="4"/>
+      <c r="B16" s="4"/>
+      <c r="C16" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="D16" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="E16" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="F16" s="5">
+        <v>1</v>
+      </c>
+      <c r="G16" s="5" t="s">
+        <v>37</v>
       </c>
     </row>
   </sheetData>

--- a/CR - Cost Report/BOM/FR/FRA0100_to_FRA0300.xlsx
+++ b/CR - Cost Report/BOM/FR/FRA0100_to_FRA0300.xlsx
@@ -8,24 +8,29 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\robin\Documents\Cours centrale\EPSA\Optimus\STUF2019\CR - Cost Report\BOM\FR\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C38EEDD2-0B6A-4FAB-95F2-740F7A83DDF9}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E0AC58BE-BDF3-4311-A78B-CD51211B7C5C}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="200" uniqueCount="144">
   <si>
     <t>System</t>
   </si>
@@ -58,18 +63,6 @@
     <t>ID</t>
   </si>
   <si>
-    <t>Name of the part</t>
-  </si>
-  <si>
-    <t>m or b</t>
-  </si>
-  <si>
-    <t>Short description of the part</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Number </t>
-  </si>
-  <si>
     <t>FR</t>
   </si>
   <si>
@@ -157,9 +150,6 @@
     <t>Square steel tubing</t>
   </si>
   <si>
-    <t>Bracket jacking bar</t>
-  </si>
-  <si>
     <t xml:space="preserve">Sleeved joint </t>
   </si>
   <si>
@@ -182,6 +172,321 @@
   </si>
   <si>
     <t>S350 ; Rules compliant sleeved joints</t>
+  </si>
+  <si>
+    <t>LAS</t>
+  </si>
+  <si>
+    <t>Jacking bar</t>
+  </si>
+  <si>
+    <t>FR_02007</t>
+  </si>
+  <si>
+    <t>FR_02008</t>
+  </si>
+  <si>
+    <t>FR_02009</t>
+  </si>
+  <si>
+    <t>FR_02010</t>
+  </si>
+  <si>
+    <t>FR_02011</t>
+  </si>
+  <si>
+    <t>FR_02012</t>
+  </si>
+  <si>
+    <t>FR_02013</t>
+  </si>
+  <si>
+    <t>FR_02014</t>
+  </si>
+  <si>
+    <t>FR_02015</t>
+  </si>
+  <si>
+    <t>FR_02016</t>
+  </si>
+  <si>
+    <t>FR_02017</t>
+  </si>
+  <si>
+    <t>FR_02018</t>
+  </si>
+  <si>
+    <t>Motorisation</t>
+  </si>
+  <si>
+    <t>Elec</t>
+  </si>
+  <si>
+    <t>FR_02019</t>
+  </si>
+  <si>
+    <t>FR_02020</t>
+  </si>
+  <si>
+    <t>FR_02021</t>
+  </si>
+  <si>
+    <t>FR_02022</t>
+  </si>
+  <si>
+    <t>FR_02023</t>
+  </si>
+  <si>
+    <t>FR_02024</t>
+  </si>
+  <si>
+    <t>FR_02025</t>
+  </si>
+  <si>
+    <t>FR_02026</t>
+  </si>
+  <si>
+    <t>FR_02027</t>
+  </si>
+  <si>
+    <t>FR_02028</t>
+  </si>
+  <si>
+    <t>FR_02029</t>
+  </si>
+  <si>
+    <t>FR_02030</t>
+  </si>
+  <si>
+    <t>FR_02031</t>
+  </si>
+  <si>
+    <t>FR_02032</t>
+  </si>
+  <si>
+    <t>FR_02033</t>
+  </si>
+  <si>
+    <t>FR_02039</t>
+  </si>
+  <si>
+    <t>FR_02040</t>
+  </si>
+  <si>
+    <t>FR_02041</t>
+  </si>
+  <si>
+    <t>FR_02042</t>
+  </si>
+  <si>
+    <t>FR_02043</t>
+  </si>
+  <si>
+    <t>FR_02044</t>
+  </si>
+  <si>
+    <t>FR_02045</t>
+  </si>
+  <si>
+    <t>FR_02046</t>
+  </si>
+  <si>
+    <t>FR_02047</t>
+  </si>
+  <si>
+    <t>FR_02048</t>
+  </si>
+  <si>
+    <t>brackets for the jacking bar, attached to PE</t>
+  </si>
+  <si>
+    <t>Brackets triangles</t>
+  </si>
+  <si>
+    <t>Links triangles to frame</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Front anti roll bar </t>
+  </si>
+  <si>
+    <t>Holds front anti roll bar</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Front Rocker bracket </t>
+  </si>
+  <si>
+    <t>Holds front rocker</t>
+  </si>
+  <si>
+    <t>front suspension bracket</t>
+  </si>
+  <si>
+    <t>Steering column</t>
+  </si>
+  <si>
+    <t>FR_01005</t>
+  </si>
+  <si>
+    <t>rear suspension bracket</t>
+  </si>
+  <si>
+    <t>holds rear shock absorber to frame</t>
+  </si>
+  <si>
+    <t>holds front shock absorber to frame</t>
+  </si>
+  <si>
+    <t>classé épaisseur décroissante (lorsque ça a du sens…)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rear anti roll bar </t>
+  </si>
+  <si>
+    <t>Holds rear anti roll bar</t>
+  </si>
+  <si>
+    <t>Holds rear Rocker</t>
+  </si>
+  <si>
+    <t>engine bracket</t>
+  </si>
+  <si>
+    <t>upper PE bracket</t>
+  </si>
+  <si>
+    <t>lower PE bracket</t>
+  </si>
+  <si>
+    <t>cooling system bracket</t>
+  </si>
+  <si>
+    <t>fuel tank bracket</t>
+  </si>
+  <si>
+    <t>chain cover bracket</t>
+  </si>
+  <si>
+    <t>pump bracket</t>
+  </si>
+  <si>
+    <t>pressure regulateur bracket</t>
+  </si>
+  <si>
+    <t>filling tube bracket</t>
+  </si>
+  <si>
+    <t>expansion tank bracket</t>
+  </si>
+  <si>
+    <t>air admission bracket</t>
+  </si>
+  <si>
+    <t>shifter bracekt</t>
+  </si>
+  <si>
+    <t>front geared motor bracket</t>
+  </si>
+  <si>
+    <t>rear geared motor bracket</t>
+  </si>
+  <si>
+    <t>radiator bracket</t>
+  </si>
+  <si>
+    <t>frame</t>
+  </si>
+  <si>
+    <t>emergency stop bracket</t>
+  </si>
+  <si>
+    <t>battery holder bracket</t>
+  </si>
+  <si>
+    <t>power box bracket</t>
+  </si>
+  <si>
+    <t>Master switch bracket</t>
+  </si>
+  <si>
+    <t>crash sensor bracket</t>
+  </si>
+  <si>
+    <t>battery bracket</t>
+  </si>
+  <si>
+    <t>electrical earth bracket</t>
+  </si>
+  <si>
+    <t>break light bracket</t>
+  </si>
+  <si>
+    <t>booster bracket</t>
+  </si>
+  <si>
+    <t>dashboard bracket</t>
+  </si>
+  <si>
+    <t>harness bracket</t>
+  </si>
+  <si>
+    <t>bucket seat bracket</t>
+  </si>
+  <si>
+    <t>brake pedal lateral support bracket</t>
+  </si>
+  <si>
+    <t>accel pedal lateral support bracket</t>
+  </si>
+  <si>
+    <t>front pedal bracket</t>
+  </si>
+  <si>
+    <t>rear pedal bracket</t>
+  </si>
+  <si>
+    <t>head support bracket</t>
+  </si>
+  <si>
+    <t>pedal fluid tank bracket</t>
+  </si>
+  <si>
+    <t>distribution pedal T bracket</t>
+  </si>
+  <si>
+    <t>body brackets</t>
+  </si>
+  <si>
+    <t>floor closeout brackets</t>
+  </si>
+  <si>
+    <t>rack bracket</t>
+  </si>
+  <si>
+    <t>fire wall bracket</t>
+  </si>
+  <si>
+    <t>Rear rocker bracket</t>
+  </si>
+  <si>
+    <t>clutch actuation axis</t>
+  </si>
+  <si>
+    <t>clutch actuation cable holder</t>
+  </si>
+  <si>
+    <t>FR_02034</t>
+  </si>
+  <si>
+    <t>FR_02035</t>
+  </si>
+  <si>
+    <t>FR_02036</t>
+  </si>
+  <si>
+    <t>FR_02037</t>
+  </si>
+  <si>
+    <t>FR_02038</t>
   </si>
 </sst>
 </file>
@@ -239,7 +544,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -261,6 +566,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFD5A6BD"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF7030A0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -303,7 +614,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -320,6 +631,14 @@
     <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -600,16 +919,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G16"/>
+  <dimension ref="A1:G62"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E6" sqref="E6"/>
+      <pane ySplit="1" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H59" sqref="H59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.7109375" customWidth="1"/>
+    <col min="1" max="1" width="24.5703125" customWidth="1"/>
     <col min="2" max="2" width="26.28515625" customWidth="1"/>
     <col min="3" max="3" width="22.85546875" customWidth="1"/>
     <col min="4" max="4" width="23.28515625" customWidth="1"/>
@@ -627,7 +946,7 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>2</v>
@@ -644,273 +963,1047 @@
     </row>
     <row r="2" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="C2" s="3"/>
       <c r="D2" s="3"/>
       <c r="E2" s="3"/>
       <c r="F2" s="3"/>
       <c r="G2" s="3" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="4"/>
       <c r="B3" s="4"/>
       <c r="C3" s="5" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="E3" s="5" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="F3" s="5">
         <v>87</v>
       </c>
       <c r="G3" s="5" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="4"/>
       <c r="B4" s="4"/>
       <c r="C4" s="5" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="E4" s="5" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="F4" s="5">
         <v>1</v>
       </c>
       <c r="G4" s="5" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="4"/>
       <c r="B5" s="4"/>
       <c r="C5" s="5" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="E5" s="5" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="F5" s="5">
         <v>2</v>
       </c>
       <c r="G5" s="5" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="4"/>
       <c r="B6" s="4"/>
       <c r="C6" s="5" t="s">
-        <v>36</v>
+        <v>88</v>
       </c>
       <c r="D6" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="E6" s="5"/>
+      <c r="F6" s="5">
+        <v>1</v>
+      </c>
+      <c r="G6" s="5" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="4"/>
+      <c r="B7" s="4"/>
+      <c r="C7" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="E6" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="F6" s="5">
+      <c r="D7" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="E7" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="F7" s="5">
         <v>2</v>
       </c>
-      <c r="G6" s="5" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="B7" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C7" s="3"/>
-      <c r="D7" s="3"/>
-      <c r="E7" s="3"/>
-      <c r="F7" s="3"/>
-      <c r="G7" s="3" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="4"/>
-      <c r="B8" s="4"/>
-      <c r="C8" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="D8" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="E8" s="5"/>
-      <c r="F8" s="5">
-        <v>2</v>
-      </c>
-      <c r="G8" s="5" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="4"/>
-      <c r="B9" s="4"/>
+      <c r="G7" s="5" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C8" s="3"/>
+      <c r="D8" s="3"/>
+      <c r="E8" s="3"/>
+      <c r="F8" s="3"/>
+      <c r="G8" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" ht="39.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>39</v>
+      </c>
       <c r="C9" s="5" t="s">
-        <v>6</v>
+        <v>81</v>
       </c>
       <c r="D9" s="5" t="s">
-        <v>7</v>
+        <v>27</v>
       </c>
       <c r="E9" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="F9" s="5" t="s">
-        <v>9</v>
+        <v>82</v>
+      </c>
+      <c r="F9" s="5">
+        <v>32</v>
       </c>
       <c r="G9" s="5" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
     </row>
     <row r="10" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="4"/>
       <c r="B10" s="4"/>
       <c r="C10" s="5" t="s">
-        <v>6</v>
+        <v>83</v>
       </c>
       <c r="D10" s="5" t="s">
-        <v>7</v>
+        <v>27</v>
       </c>
       <c r="E10" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="F10" s="5" t="s">
-        <v>9</v>
+        <v>84</v>
+      </c>
+      <c r="F10" s="5">
+        <v>2</v>
       </c>
       <c r="G10" s="5" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
     </row>
     <row r="11" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="4"/>
       <c r="B11" s="4"/>
       <c r="C11" s="5" t="s">
-        <v>6</v>
+        <v>94</v>
       </c>
       <c r="D11" s="5" t="s">
-        <v>7</v>
+        <v>27</v>
       </c>
       <c r="E11" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="F11" s="5" t="s">
-        <v>9</v>
+        <v>95</v>
+      </c>
+      <c r="F11" s="5">
+        <v>2</v>
       </c>
       <c r="G11" s="5" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
     </row>
     <row r="12" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="4"/>
       <c r="B12" s="4"/>
       <c r="C12" s="5" t="s">
-        <v>6</v>
+        <v>85</v>
       </c>
       <c r="D12" s="5" t="s">
-        <v>7</v>
+        <v>27</v>
       </c>
       <c r="E12" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="F12" s="5" t="s">
-        <v>9</v>
+        <v>86</v>
+      </c>
+      <c r="F12" s="5">
+        <v>4</v>
       </c>
       <c r="G12" s="5" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
     </row>
     <row r="13" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="4"/>
       <c r="B13" s="4"/>
       <c r="C13" s="5" t="s">
-        <v>6</v>
+        <v>136</v>
       </c>
       <c r="D13" s="5" t="s">
-        <v>7</v>
+        <v>27</v>
       </c>
       <c r="E13" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="F13" s="5" t="s">
-        <v>9</v>
+        <v>96</v>
+      </c>
+      <c r="F13" s="5">
+        <v>2</v>
       </c>
       <c r="G13" s="5" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="B14" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="C14" s="3"/>
-      <c r="D14" s="3"/>
-      <c r="E14" s="3"/>
-      <c r="F14" s="3"/>
-      <c r="G14" s="3" t="s">
-        <v>16</v>
+        <v>21</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="4"/>
+      <c r="B14" s="4"/>
+      <c r="C14" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="D14" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="E14" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="F14" s="5">
+        <v>2</v>
+      </c>
+      <c r="G14" s="5" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="15" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="4"/>
       <c r="B15" s="4"/>
       <c r="C15" s="5" t="s">
-        <v>13</v>
+        <v>90</v>
       </c>
       <c r="D15" s="5" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="E15" s="5" t="s">
-        <v>30</v>
+        <v>91</v>
       </c>
       <c r="F15" s="5">
+        <v>2</v>
+      </c>
+      <c r="G15" s="5" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" s="8" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="6"/>
+      <c r="B16" s="6"/>
+      <c r="C16" s="7"/>
+      <c r="D16" s="7"/>
+      <c r="E16" s="7"/>
+      <c r="F16" s="7"/>
+      <c r="G16" s="7"/>
+    </row>
+    <row r="17" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="4"/>
+      <c r="B17" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="C17" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="D17" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="E17" s="5"/>
+      <c r="F17" s="5">
+        <v>2</v>
+      </c>
+      <c r="G17" s="5" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="4"/>
+      <c r="B18" s="4"/>
+      <c r="C18" s="5" t="s">
+        <v>98</v>
+      </c>
+      <c r="D18" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="E18" s="5"/>
+      <c r="F18" s="5">
+        <v>4</v>
+      </c>
+      <c r="G18" s="5" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="4"/>
+      <c r="B19" s="4"/>
+      <c r="C19" s="5" t="s">
+        <v>99</v>
+      </c>
+      <c r="D19" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="E19" s="5"/>
+      <c r="F19" s="5">
+        <v>4</v>
+      </c>
+      <c r="G19" s="5" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="4"/>
+      <c r="B20" s="4"/>
+      <c r="C20" s="5" t="s">
+        <v>100</v>
+      </c>
+      <c r="D20" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="E20" s="5"/>
+      <c r="F20" s="5">
+        <v>3</v>
+      </c>
+      <c r="G20" s="5" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="4"/>
+      <c r="B21" s="4"/>
+      <c r="C21" s="5" t="s">
+        <v>101</v>
+      </c>
+      <c r="D21" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="E21" s="5"/>
+      <c r="F21" s="5">
+        <v>4</v>
+      </c>
+      <c r="G21" s="5" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="4"/>
+      <c r="B22" s="4"/>
+      <c r="C22" s="5" t="s">
+        <v>102</v>
+      </c>
+      <c r="D22" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="E22" s="5"/>
+      <c r="F22" s="5">
+        <v>2</v>
+      </c>
+      <c r="G22" s="5" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="4"/>
+      <c r="B23" s="4"/>
+      <c r="C23" s="5" t="s">
+        <v>103</v>
+      </c>
+      <c r="D23" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="E23" s="5"/>
+      <c r="F23" s="5">
         <v>1</v>
       </c>
-      <c r="G15" s="5" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="4"/>
-      <c r="B16" s="4"/>
-      <c r="C16" s="5" t="s">
+      <c r="G23" s="5" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="4"/>
+      <c r="B24" s="4"/>
+      <c r="C24" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D24" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="E24" s="5"/>
+      <c r="F24" s="5">
+        <v>1</v>
+      </c>
+      <c r="G24" s="5" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="4"/>
+      <c r="B25" s="4"/>
+      <c r="C25" s="5" t="s">
+        <v>105</v>
+      </c>
+      <c r="D25" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="E25" s="5"/>
+      <c r="F25" s="5">
+        <v>1</v>
+      </c>
+      <c r="G25" s="5" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="4"/>
+      <c r="B26" s="4"/>
+      <c r="C26" s="5" t="s">
+        <v>108</v>
+      </c>
+      <c r="D26" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="E26" s="5"/>
+      <c r="F26" s="5">
+        <v>1</v>
+      </c>
+      <c r="G26" s="5" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="4"/>
+      <c r="B27" s="4"/>
+      <c r="C27" s="5" t="s">
+        <v>109</v>
+      </c>
+      <c r="D27" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="E27" s="5"/>
+      <c r="F27" s="5">
+        <v>1</v>
+      </c>
+      <c r="G27" s="5" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="4"/>
+      <c r="B28" s="4"/>
+      <c r="C28" s="5" t="s">
+        <v>110</v>
+      </c>
+      <c r="D28" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="E28" s="5"/>
+      <c r="F28" s="5">
+        <v>1</v>
+      </c>
+      <c r="G28" s="5" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="4"/>
+      <c r="B29" s="4"/>
+      <c r="C29" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="D29" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="E29" s="5"/>
+      <c r="F29" s="5">
+        <v>3</v>
+      </c>
+      <c r="G29" s="5" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="4"/>
+      <c r="B30" s="4"/>
+      <c r="C30" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="D30" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="E30" s="5"/>
+      <c r="F30" s="5">
+        <v>1</v>
+      </c>
+      <c r="G30" s="5" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A31" s="4"/>
+      <c r="B31" s="4"/>
+      <c r="C31" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="D31" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="E31" s="5"/>
+      <c r="F31" s="5">
+        <v>2</v>
+      </c>
+      <c r="G31" s="5" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" s="8" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A32" s="6"/>
+      <c r="B32" s="6"/>
+      <c r="C32" s="7"/>
+      <c r="D32" s="7"/>
+      <c r="E32" s="7"/>
+      <c r="F32" s="7"/>
+      <c r="G32" s="7"/>
+    </row>
+    <row r="33" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A33" s="4"/>
+      <c r="B33" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="C33" s="5" t="s">
+        <v>113</v>
+      </c>
+      <c r="D33" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="E33" s="5"/>
+      <c r="F33" s="5">
+        <v>2</v>
+      </c>
+      <c r="G33" s="5" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A34" s="4"/>
+      <c r="B34" s="4"/>
+      <c r="C34" s="5" t="s">
+        <v>114</v>
+      </c>
+      <c r="D34" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="E34" s="5"/>
+      <c r="F34" s="5">
+        <v>1</v>
+      </c>
+      <c r="G34" s="5" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A35" s="4"/>
+      <c r="B35" s="4"/>
+      <c r="C35" s="5" t="s">
+        <v>115</v>
+      </c>
+      <c r="D35" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="E35" s="5"/>
+      <c r="F35" s="5">
+        <v>2</v>
+      </c>
+      <c r="G35" s="5" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A36" s="4"/>
+      <c r="B36" s="4"/>
+      <c r="C36" s="5" t="s">
+        <v>116</v>
+      </c>
+      <c r="D36" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="E36" s="5"/>
+      <c r="F36" s="5">
+        <v>2</v>
+      </c>
+      <c r="G36" s="5" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A37" s="4"/>
+      <c r="B37" s="4"/>
+      <c r="C37" s="5" t="s">
+        <v>117</v>
+      </c>
+      <c r="D37" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="E37" s="5"/>
+      <c r="F37" s="5">
+        <v>1</v>
+      </c>
+      <c r="G37" s="5" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A38" s="4"/>
+      <c r="B38" s="4"/>
+      <c r="C38" s="5" t="s">
+        <v>118</v>
+      </c>
+      <c r="D38" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="E38" s="5"/>
+      <c r="F38" s="5">
+        <v>3</v>
+      </c>
+      <c r="G38" s="5" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A39" s="4"/>
+      <c r="B39" s="4"/>
+      <c r="C39" s="5" t="s">
+        <v>119</v>
+      </c>
+      <c r="D39" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="E39" s="5"/>
+      <c r="F39" s="5">
+        <v>4</v>
+      </c>
+      <c r="G39" s="5" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A40" s="4"/>
+      <c r="B40" s="4"/>
+      <c r="C40" s="5" t="s">
+        <v>120</v>
+      </c>
+      <c r="D40" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="E40" s="5"/>
+      <c r="F40" s="5">
+        <v>1</v>
+      </c>
+      <c r="G40" s="5" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A41" s="4"/>
+      <c r="B41" s="4"/>
+      <c r="C41" s="5" t="s">
+        <v>121</v>
+      </c>
+      <c r="D41" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="E41" s="5"/>
+      <c r="F41" s="5">
+        <v>1</v>
+      </c>
+      <c r="G41" s="5" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A42" s="4"/>
+      <c r="B42" s="4"/>
+      <c r="C42" s="5" t="s">
+        <v>122</v>
+      </c>
+      <c r="D42" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="E42" s="5"/>
+      <c r="F42" s="5">
+        <v>6</v>
+      </c>
+      <c r="G42" s="5" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" s="8" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A43" s="6"/>
+      <c r="B43" s="6"/>
+      <c r="C43" s="7"/>
+      <c r="D43" s="7"/>
+      <c r="E43" s="7"/>
+      <c r="F43" s="7"/>
+      <c r="G43" s="7"/>
+    </row>
+    <row r="44" spans="1:7" s="9" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A44" s="4"/>
+      <c r="B44" s="4" t="s">
+        <v>112</v>
+      </c>
+      <c r="C44" s="5" t="s">
+        <v>123</v>
+      </c>
+      <c r="D44" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="E44" s="5"/>
+      <c r="F44" s="5">
+        <v>2</v>
+      </c>
+      <c r="G44" s="5" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A45" s="4"/>
+      <c r="B45" s="4"/>
+      <c r="C45" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="D45" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="E45" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="F45" s="5">
+        <v>2</v>
+      </c>
+      <c r="G45" s="5" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A46" s="4"/>
+      <c r="B46" s="4"/>
+      <c r="C46" s="5" t="s">
+        <v>124</v>
+      </c>
+      <c r="D46" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="E46" s="5"/>
+      <c r="F46" s="5">
+        <v>6</v>
+      </c>
+      <c r="G46" s="5" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A47" s="4"/>
+      <c r="B47" s="4"/>
+      <c r="C47" s="5" t="s">
+        <v>125</v>
+      </c>
+      <c r="D47" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="E47" s="5"/>
+      <c r="F47" s="5">
+        <v>2</v>
+      </c>
+      <c r="G47" s="5" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A48" s="4"/>
+      <c r="B48" s="4"/>
+      <c r="C48" s="5" t="s">
+        <v>126</v>
+      </c>
+      <c r="D48" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="E48" s="5"/>
+      <c r="F48" s="5">
+        <v>2</v>
+      </c>
+      <c r="G48" s="5" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A49" s="4"/>
+      <c r="B49" s="4"/>
+      <c r="C49" s="5" t="s">
+        <v>127</v>
+      </c>
+      <c r="D49" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="E49" s="5"/>
+      <c r="F49" s="5">
+        <v>4</v>
+      </c>
+      <c r="G49" s="5" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A50" s="4"/>
+      <c r="B50" s="4"/>
+      <c r="C50" s="5" t="s">
+        <v>128</v>
+      </c>
+      <c r="D50" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="E50" s="5"/>
+      <c r="F50" s="5">
+        <v>4</v>
+      </c>
+      <c r="G50" s="5" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A51" s="4"/>
+      <c r="B51" s="4"/>
+      <c r="C51" s="5" t="s">
+        <v>129</v>
+      </c>
+      <c r="D51" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="E51" s="5"/>
+      <c r="F51" s="5">
+        <v>2</v>
+      </c>
+      <c r="G51" s="5" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A52" s="4"/>
+      <c r="B52" s="4"/>
+      <c r="C52" s="5" t="s">
+        <v>130</v>
+      </c>
+      <c r="D52" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="E52" s="5"/>
+      <c r="F52" s="5">
+        <v>1</v>
+      </c>
+      <c r="G52" s="5" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A53" s="4"/>
+      <c r="B53" s="4"/>
+      <c r="C53" s="5" t="s">
+        <v>131</v>
+      </c>
+      <c r="D53" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="E53" s="5"/>
+      <c r="F53" s="5">
+        <v>1</v>
+      </c>
+      <c r="G53" s="5" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A54" s="4"/>
+      <c r="B54" s="4"/>
+      <c r="C54" s="5" t="s">
+        <v>132</v>
+      </c>
+      <c r="D54" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="E54" s="5"/>
+      <c r="F54" s="5">
+        <v>4</v>
+      </c>
+      <c r="G54" s="5" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A55" s="4"/>
+      <c r="B55" s="4"/>
+      <c r="C55" s="5" t="s">
+        <v>133</v>
+      </c>
+      <c r="D55" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="E55" s="5"/>
+      <c r="F55" s="5">
+        <v>8</v>
+      </c>
+      <c r="G55" s="5" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A56" s="4"/>
+      <c r="B56" s="4"/>
+      <c r="C56" s="5" t="s">
+        <v>134</v>
+      </c>
+      <c r="D56" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="E56" s="5"/>
+      <c r="F56" s="5">
+        <v>2</v>
+      </c>
+      <c r="G56" s="5" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A57" s="4"/>
+      <c r="B57" s="4"/>
+      <c r="C57" s="5" t="s">
+        <v>135</v>
+      </c>
+      <c r="D57" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="E57" s="5"/>
+      <c r="F57" s="5">
+        <v>12</v>
+      </c>
+      <c r="G57" s="5" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A58" s="4"/>
+      <c r="B58" s="4"/>
+      <c r="C58" s="5" t="s">
+        <v>137</v>
+      </c>
+      <c r="D58" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="E58" s="5"/>
+      <c r="F58" s="5">
+        <v>1</v>
+      </c>
+      <c r="G58" s="5" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A59" s="4"/>
+      <c r="B59" s="4"/>
+      <c r="C59" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="D59" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="E59" s="5"/>
+      <c r="F59" s="5">
+        <v>1</v>
+      </c>
+      <c r="G59" s="5" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A60" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B60" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C60" s="3"/>
+      <c r="D60" s="3"/>
+      <c r="E60" s="3"/>
+      <c r="F60" s="3"/>
+      <c r="G60" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A61" s="4"/>
+      <c r="B61" s="4"/>
+      <c r="C61" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="D61" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="E61" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="F61" s="5">
+        <v>1</v>
+      </c>
+      <c r="G61" s="5" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A62" s="4"/>
+      <c r="B62" s="4"/>
+      <c r="C62" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="D62" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="E62" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="F62" s="5">
+        <v>1</v>
+      </c>
+      <c r="G62" s="5" t="s">
         <v>32</v>
-      </c>
-      <c r="D16" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="E16" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="F16" s="5">
-        <v>1</v>
-      </c>
-      <c r="G16" s="5" t="s">
-        <v>37</v>
       </c>
     </row>
   </sheetData>

--- a/CR - Cost Report/BOM/FR/FRA0100_to_FRA0300.xlsx
+++ b/CR - Cost Report/BOM/FR/FRA0100_to_FRA0300.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\robin\Documents\Cours centrale\EPSA\Optimus\STUF2019\CR - Cost Report\BOM\FR\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E0AC58BE-BDF3-4311-A78B-CD51211B7C5C}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F9B8B000-D7A8-47EC-8548-47B4B9FBCD60}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -922,8 +922,8 @@
   <dimension ref="A1:G62"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H59" sqref="H59"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F39" sqref="F39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1662,7 +1662,7 @@
       </c>
       <c r="E42" s="5"/>
       <c r="F42" s="5">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="G42" s="5" t="s">
         <v>68</v>

--- a/CR - Cost Report/BOM/FR/FRA0100_to_FRA0300.xlsx
+++ b/CR - Cost Report/BOM/FR/FRA0100_to_FRA0300.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\robin\Documents\Cours centrale\EPSA\Optimus\STUF2019\CR - Cost Report\BOM\FR\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F9B8B000-D7A8-47EC-8548-47B4B9FBCD60}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1CC392A4-82E8-49FD-B9F1-2EE969D0E6DE}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -351,21 +351,12 @@
     <t>engine bracket</t>
   </si>
   <si>
-    <t>upper PE bracket</t>
-  </si>
-  <si>
-    <t>lower PE bracket</t>
-  </si>
-  <si>
     <t>cooling system bracket</t>
   </si>
   <si>
     <t>fuel tank bracket</t>
   </si>
   <si>
-    <t>chain cover bracket</t>
-  </si>
-  <si>
     <t>pump bracket</t>
   </si>
   <si>
@@ -487,6 +478,15 @@
   </si>
   <si>
     <t>FR_02038</t>
+  </si>
+  <si>
+    <t>chainshield bracket</t>
+  </si>
+  <si>
+    <t>upper excentric carrier bracket</t>
+  </si>
+  <si>
+    <t>lower excentric carrier bracket</t>
   </si>
 </sst>
 </file>
@@ -922,8 +922,8 @@
   <dimension ref="A1:G62"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F39" sqref="F39"/>
+      <pane ySplit="1" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E22" sqref="E21:E22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1168,7 +1168,7 @@
       <c r="A13" s="4"/>
       <c r="B13" s="4"/>
       <c r="C13" s="5" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="D13" s="5" t="s">
         <v>27</v>
@@ -1249,11 +1249,11 @@
         <v>42</v>
       </c>
     </row>
-    <row r="18" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:7" ht="27" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="4"/>
       <c r="B18" s="4"/>
       <c r="C18" s="5" t="s">
-        <v>98</v>
+        <v>142</v>
       </c>
       <c r="D18" s="5" t="s">
         <v>27</v>
@@ -1266,11 +1266,11 @@
         <v>43</v>
       </c>
     </row>
-    <row r="19" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:7" ht="27" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="4"/>
       <c r="B19" s="4"/>
       <c r="C19" s="5" t="s">
-        <v>99</v>
+        <v>143</v>
       </c>
       <c r="D19" s="5" t="s">
         <v>27</v>
@@ -1287,7 +1287,7 @@
       <c r="A20" s="4"/>
       <c r="B20" s="4"/>
       <c r="C20" s="5" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="D20" s="5" t="s">
         <v>27</v>
@@ -1304,7 +1304,7 @@
       <c r="A21" s="4"/>
       <c r="B21" s="4"/>
       <c r="C21" s="5" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="D21" s="5" t="s">
         <v>27</v>
@@ -1321,7 +1321,7 @@
       <c r="A22" s="4"/>
       <c r="B22" s="4"/>
       <c r="C22" s="5" t="s">
-        <v>102</v>
+        <v>141</v>
       </c>
       <c r="D22" s="5" t="s">
         <v>27</v>
@@ -1338,7 +1338,7 @@
       <c r="A23" s="4"/>
       <c r="B23" s="4"/>
       <c r="C23" s="5" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="D23" s="5" t="s">
         <v>27</v>
@@ -1355,7 +1355,7 @@
       <c r="A24" s="4"/>
       <c r="B24" s="4"/>
       <c r="C24" s="5" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="D24" s="5" t="s">
         <v>27</v>
@@ -1372,7 +1372,7 @@
       <c r="A25" s="4"/>
       <c r="B25" s="4"/>
       <c r="C25" s="5" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="D25" s="5" t="s">
         <v>27</v>
@@ -1389,7 +1389,7 @@
       <c r="A26" s="4"/>
       <c r="B26" s="4"/>
       <c r="C26" s="5" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="D26" s="5" t="s">
         <v>27</v>
@@ -1406,7 +1406,7 @@
       <c r="A27" s="4"/>
       <c r="B27" s="4"/>
       <c r="C27" s="5" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="D27" s="5" t="s">
         <v>27</v>
@@ -1423,7 +1423,7 @@
       <c r="A28" s="4"/>
       <c r="B28" s="4"/>
       <c r="C28" s="5" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="D28" s="5" t="s">
         <v>27</v>
@@ -1440,7 +1440,7 @@
       <c r="A29" s="4"/>
       <c r="B29" s="4"/>
       <c r="C29" s="5" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="D29" s="5" t="s">
         <v>27</v>
@@ -1457,7 +1457,7 @@
       <c r="A30" s="4"/>
       <c r="B30" s="4"/>
       <c r="C30" s="5" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="D30" s="5" t="s">
         <v>27</v>
@@ -1474,7 +1474,7 @@
       <c r="A31" s="4"/>
       <c r="B31" s="4"/>
       <c r="C31" s="5" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="D31" s="5" t="s">
         <v>27</v>
@@ -1502,7 +1502,7 @@
         <v>54</v>
       </c>
       <c r="C33" s="5" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="D33" s="5" t="s">
         <v>27</v>
@@ -1519,7 +1519,7 @@
       <c r="A34" s="4"/>
       <c r="B34" s="4"/>
       <c r="C34" s="5" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="D34" s="5" t="s">
         <v>27</v>
@@ -1536,7 +1536,7 @@
       <c r="A35" s="4"/>
       <c r="B35" s="4"/>
       <c r="C35" s="5" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="D35" s="5" t="s">
         <v>27</v>
@@ -1553,7 +1553,7 @@
       <c r="A36" s="4"/>
       <c r="B36" s="4"/>
       <c r="C36" s="5" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="D36" s="5" t="s">
         <v>27</v>
@@ -1570,7 +1570,7 @@
       <c r="A37" s="4"/>
       <c r="B37" s="4"/>
       <c r="C37" s="5" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="D37" s="5" t="s">
         <v>27</v>
@@ -1587,7 +1587,7 @@
       <c r="A38" s="4"/>
       <c r="B38" s="4"/>
       <c r="C38" s="5" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="D38" s="5" t="s">
         <v>27</v>
@@ -1604,7 +1604,7 @@
       <c r="A39" s="4"/>
       <c r="B39" s="4"/>
       <c r="C39" s="5" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="D39" s="5" t="s">
         <v>27</v>
@@ -1621,7 +1621,7 @@
       <c r="A40" s="4"/>
       <c r="B40" s="4"/>
       <c r="C40" s="5" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="D40" s="5" t="s">
         <v>27</v>
@@ -1638,7 +1638,7 @@
       <c r="A41" s="4"/>
       <c r="B41" s="4"/>
       <c r="C41" s="5" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="D41" s="5" t="s">
         <v>27</v>
@@ -1655,7 +1655,7 @@
       <c r="A42" s="4"/>
       <c r="B42" s="4"/>
       <c r="C42" s="5" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="D42" s="5" t="s">
         <v>27</v>
@@ -1680,10 +1680,10 @@
     <row r="44" spans="1:7" s="9" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A44" s="4"/>
       <c r="B44" s="4" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="C44" s="5" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="D44" s="5" t="s">
         <v>27</v>
@@ -1712,14 +1712,14 @@
         <v>2</v>
       </c>
       <c r="G45" s="5" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
     </row>
     <row r="46" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A46" s="4"/>
       <c r="B46" s="4"/>
       <c r="C46" s="5" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="D46" s="5" t="s">
         <v>27</v>
@@ -1729,14 +1729,14 @@
         <v>6</v>
       </c>
       <c r="G46" s="5" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
     </row>
     <row r="47" spans="1:7" ht="27" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A47" s="4"/>
       <c r="B47" s="4"/>
       <c r="C47" s="5" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="D47" s="5" t="s">
         <v>27</v>
@@ -1746,14 +1746,14 @@
         <v>2</v>
       </c>
       <c r="G47" s="5" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
     </row>
     <row r="48" spans="1:7" ht="27" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A48" s="4"/>
       <c r="B48" s="4"/>
       <c r="C48" s="5" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="D48" s="5" t="s">
         <v>27</v>
@@ -1763,14 +1763,14 @@
         <v>2</v>
       </c>
       <c r="G48" s="5" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
     </row>
     <row r="49" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A49" s="4"/>
       <c r="B49" s="4"/>
       <c r="C49" s="5" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="D49" s="5" t="s">
         <v>27</v>
@@ -1780,14 +1780,14 @@
         <v>4</v>
       </c>
       <c r="G49" s="5" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
     </row>
     <row r="50" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A50" s="4"/>
       <c r="B50" s="4"/>
       <c r="C50" s="5" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="D50" s="5" t="s">
         <v>27</v>
@@ -1804,7 +1804,7 @@
       <c r="A51" s="4"/>
       <c r="B51" s="4"/>
       <c r="C51" s="5" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="D51" s="5" t="s">
         <v>27</v>
@@ -1821,7 +1821,7 @@
       <c r="A52" s="4"/>
       <c r="B52" s="4"/>
       <c r="C52" s="5" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="D52" s="5" t="s">
         <v>27</v>
@@ -1838,7 +1838,7 @@
       <c r="A53" s="4"/>
       <c r="B53" s="4"/>
       <c r="C53" s="5" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="D53" s="5" t="s">
         <v>27</v>
@@ -1855,7 +1855,7 @@
       <c r="A54" s="4"/>
       <c r="B54" s="4"/>
       <c r="C54" s="5" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="D54" s="5" t="s">
         <v>27</v>
@@ -1872,7 +1872,7 @@
       <c r="A55" s="4"/>
       <c r="B55" s="4"/>
       <c r="C55" s="5" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="D55" s="5" t="s">
         <v>27</v>
@@ -1889,7 +1889,7 @@
       <c r="A56" s="4"/>
       <c r="B56" s="4"/>
       <c r="C56" s="5" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="D56" s="5" t="s">
         <v>27</v>
@@ -1906,7 +1906,7 @@
       <c r="A57" s="4"/>
       <c r="B57" s="4"/>
       <c r="C57" s="5" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="D57" s="5" t="s">
         <v>27</v>
@@ -1923,7 +1923,7 @@
       <c r="A58" s="4"/>
       <c r="B58" s="4"/>
       <c r="C58" s="5" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="D58" s="5" t="s">
         <v>27</v>
@@ -1940,7 +1940,7 @@
       <c r="A59" s="4"/>
       <c r="B59" s="4"/>
       <c r="C59" s="5" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="D59" s="5" t="s">
         <v>27</v>

--- a/CR - Cost Report/BOM/FR/FRA0100_to_FRA0300.xlsx
+++ b/CR - Cost Report/BOM/FR/FRA0100_to_FRA0300.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\robin\Documents\Cours centrale\EPSA\Optimus\STUF2019\CR - Cost Report\BOM\FR\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1CC392A4-82E8-49FD-B9F1-2EE969D0E6DE}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E5B59A8-1B5D-46FE-BCB6-5E970CC2180B}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="200" uniqueCount="144">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="203" uniqueCount="145">
   <si>
     <t>System</t>
   </si>
@@ -487,6 +487,9 @@
   </si>
   <si>
     <t>lower excentric carrier bracket</t>
+  </si>
+  <si>
+    <t>FR_01006</t>
   </si>
 </sst>
 </file>
@@ -919,11 +922,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G62"/>
+  <dimension ref="A1:G63"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E22" sqref="E21:E22"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1054,223 +1057,223 @@
       <c r="A7" s="4"/>
       <c r="B7" s="4"/>
       <c r="C7" s="5" t="s">
-        <v>31</v>
+        <v>40</v>
       </c>
       <c r="D7" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="E7" s="5" t="s">
-        <v>38</v>
-      </c>
+      <c r="E7" s="5"/>
       <c r="F7" s="5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G7" s="5" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="8" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="3" t="s">
+    <row r="8" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="4"/>
+      <c r="B8" s="4"/>
+      <c r="C8" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="D8" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="E8" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="F8" s="5">
+        <v>2</v>
+      </c>
+      <c r="G8" s="5" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="B8" s="3" t="s">
+      <c r="B9" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="C8" s="3"/>
-      <c r="D8" s="3"/>
-      <c r="E8" s="3"/>
-      <c r="F8" s="3"/>
-      <c r="G8" s="3" t="s">
+      <c r="C9" s="3"/>
+      <c r="D9" s="3"/>
+      <c r="E9" s="3"/>
+      <c r="F9" s="3"/>
+      <c r="G9" s="3" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="9" spans="1:7" ht="39.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="4" t="s">
+    <row r="10" spans="1:7" ht="39.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="4" t="s">
         <v>93</v>
       </c>
-      <c r="B9" s="4" t="s">
+      <c r="B10" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="C9" s="5" t="s">
+      <c r="C10" s="5" t="s">
         <v>81</v>
       </c>
-      <c r="D9" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="E9" s="5" t="s">
+      <c r="D10" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="E10" s="5" t="s">
         <v>82</v>
       </c>
-      <c r="F9" s="5">
+      <c r="F10" s="5">
         <v>32</v>
       </c>
-      <c r="G9" s="5" t="s">
+      <c r="G10" s="5" t="s">
         <v>17</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="4"/>
-      <c r="B10" s="4"/>
-      <c r="C10" s="5" t="s">
-        <v>83</v>
-      </c>
-      <c r="D10" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="E10" s="5" t="s">
-        <v>84</v>
-      </c>
-      <c r="F10" s="5">
-        <v>2</v>
-      </c>
-      <c r="G10" s="5" t="s">
-        <v>18</v>
       </c>
     </row>
     <row r="11" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="4"/>
       <c r="B11" s="4"/>
       <c r="C11" s="5" t="s">
-        <v>94</v>
+        <v>83</v>
       </c>
       <c r="D11" s="5" t="s">
         <v>27</v>
       </c>
       <c r="E11" s="5" t="s">
-        <v>95</v>
+        <v>84</v>
       </c>
       <c r="F11" s="5">
         <v>2</v>
       </c>
       <c r="G11" s="5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="12" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="4"/>
       <c r="B12" s="4"/>
       <c r="C12" s="5" t="s">
-        <v>85</v>
+        <v>94</v>
       </c>
       <c r="D12" s="5" t="s">
         <v>27</v>
       </c>
       <c r="E12" s="5" t="s">
-        <v>86</v>
+        <v>95</v>
       </c>
       <c r="F12" s="5">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G12" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="13" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="4"/>
       <c r="B13" s="4"/>
       <c r="C13" s="5" t="s">
-        <v>133</v>
+        <v>85</v>
       </c>
       <c r="D13" s="5" t="s">
         <v>27</v>
       </c>
       <c r="E13" s="5" t="s">
-        <v>96</v>
+        <v>86</v>
       </c>
       <c r="F13" s="5">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G13" s="5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="14" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="4"/>
       <c r="B14" s="4"/>
       <c r="C14" s="5" t="s">
-        <v>87</v>
+        <v>133</v>
       </c>
       <c r="D14" s="5" t="s">
         <v>27</v>
       </c>
       <c r="E14" s="5" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="F14" s="5">
         <v>2</v>
       </c>
       <c r="G14" s="5" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="15" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="4"/>
       <c r="B15" s="4"/>
       <c r="C15" s="5" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="D15" s="5" t="s">
         <v>27</v>
       </c>
       <c r="E15" s="5" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="F15" s="5">
         <v>2</v>
       </c>
       <c r="G15" s="5" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="4"/>
+      <c r="B16" s="4"/>
+      <c r="C16" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="D16" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="E16" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="F16" s="5">
+        <v>2</v>
+      </c>
+      <c r="G16" s="5" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="16" spans="1:7" s="8" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="6"/>
-      <c r="B16" s="6"/>
-      <c r="C16" s="7"/>
-      <c r="D16" s="7"/>
-      <c r="E16" s="7"/>
-      <c r="F16" s="7"/>
-      <c r="G16" s="7"/>
-    </row>
-    <row r="17" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="4"/>
-      <c r="B17" s="4" t="s">
+    <row r="17" spans="1:7" s="8" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="6"/>
+      <c r="B17" s="6"/>
+      <c r="C17" s="7"/>
+      <c r="D17" s="7"/>
+      <c r="E17" s="7"/>
+      <c r="F17" s="7"/>
+      <c r="G17" s="7"/>
+    </row>
+    <row r="18" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="4"/>
+      <c r="B18" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="C17" s="5" t="s">
+      <c r="C18" s="5" t="s">
         <v>97</v>
-      </c>
-      <c r="D17" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="E17" s="5"/>
-      <c r="F17" s="5">
-        <v>2</v>
-      </c>
-      <c r="G17" s="5" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" ht="27" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="4"/>
-      <c r="B18" s="4"/>
-      <c r="C18" s="5" t="s">
-        <v>142</v>
       </c>
       <c r="D18" s="5" t="s">
         <v>27</v>
       </c>
       <c r="E18" s="5"/>
       <c r="F18" s="5">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G18" s="5" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="19" spans="1:7" ht="27" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="4"/>
       <c r="B19" s="4"/>
       <c r="C19" s="5" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D19" s="5" t="s">
         <v>27</v>
@@ -1280,82 +1283,82 @@
         <v>4</v>
       </c>
       <c r="G19" s="5" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" ht="27" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="4"/>
       <c r="B20" s="4"/>
       <c r="C20" s="5" t="s">
-        <v>98</v>
+        <v>143</v>
       </c>
       <c r="D20" s="5" t="s">
         <v>27</v>
       </c>
       <c r="E20" s="5"/>
       <c r="F20" s="5">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G20" s="5" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="21" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" s="4"/>
       <c r="B21" s="4"/>
       <c r="C21" s="5" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D21" s="5" t="s">
         <v>27</v>
       </c>
       <c r="E21" s="5"/>
       <c r="F21" s="5">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G21" s="5" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="22" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A22" s="4"/>
       <c r="B22" s="4"/>
       <c r="C22" s="5" t="s">
-        <v>141</v>
+        <v>99</v>
       </c>
       <c r="D22" s="5" t="s">
         <v>27</v>
       </c>
       <c r="E22" s="5"/>
       <c r="F22" s="5">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G22" s="5" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="23" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A23" s="4"/>
       <c r="B23" s="4"/>
       <c r="C23" s="5" t="s">
-        <v>100</v>
+        <v>141</v>
       </c>
       <c r="D23" s="5" t="s">
         <v>27</v>
       </c>
       <c r="E23" s="5"/>
       <c r="F23" s="5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G23" s="5" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A24" s="4"/>
       <c r="B24" s="4"/>
       <c r="C24" s="5" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D24" s="5" t="s">
         <v>27</v>
@@ -1365,14 +1368,14 @@
         <v>1</v>
       </c>
       <c r="G24" s="5" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" ht="27" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A25" s="4"/>
       <c r="B25" s="4"/>
       <c r="C25" s="5" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D25" s="5" t="s">
         <v>27</v>
@@ -1382,14 +1385,14 @@
         <v>1</v>
       </c>
       <c r="G25" s="5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="26" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A26" s="4"/>
       <c r="B26" s="4"/>
       <c r="C26" s="5" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="D26" s="5" t="s">
         <v>27</v>
@@ -1399,14 +1402,14 @@
         <v>1</v>
       </c>
       <c r="G26" s="5" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A27" s="4"/>
       <c r="B27" s="4"/>
       <c r="C27" s="5" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D27" s="5" t="s">
         <v>27</v>
@@ -1416,14 +1419,14 @@
         <v>1</v>
       </c>
       <c r="G27" s="5" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" ht="27" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A28" s="4"/>
       <c r="B28" s="4"/>
       <c r="C28" s="5" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D28" s="5" t="s">
         <v>27</v>
@@ -1433,127 +1436,127 @@
         <v>1</v>
       </c>
       <c r="G28" s="5" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
     </row>
     <row r="29" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A29" s="4"/>
       <c r="B29" s="4"/>
       <c r="C29" s="5" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D29" s="5" t="s">
         <v>27</v>
       </c>
       <c r="E29" s="5"/>
       <c r="F29" s="5">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G29" s="5" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="30" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A30" s="4"/>
       <c r="B30" s="4"/>
       <c r="C30" s="5" t="s">
-        <v>103</v>
+        <v>108</v>
       </c>
       <c r="D30" s="5" t="s">
         <v>27</v>
       </c>
       <c r="E30" s="5"/>
       <c r="F30" s="5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G30" s="5" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="31" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A31" s="4"/>
       <c r="B31" s="4"/>
       <c r="C31" s="5" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D31" s="5" t="s">
         <v>27</v>
       </c>
       <c r="E31" s="5"/>
       <c r="F31" s="5">
+        <v>1</v>
+      </c>
+      <c r="G31" s="5" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A32" s="4"/>
+      <c r="B32" s="4"/>
+      <c r="C32" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D32" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="E32" s="5"/>
+      <c r="F32" s="5">
         <v>2</v>
       </c>
-      <c r="G31" s="5" t="s">
+      <c r="G32" s="5" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="32" spans="1:7" s="8" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="6"/>
-      <c r="B32" s="6"/>
-      <c r="C32" s="7"/>
-      <c r="D32" s="7"/>
-      <c r="E32" s="7"/>
-      <c r="F32" s="7"/>
-      <c r="G32" s="7"/>
-    </row>
-    <row r="33" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="4"/>
-      <c r="B33" s="4" t="s">
-        <v>54</v>
-      </c>
-      <c r="C33" s="5" t="s">
-        <v>110</v>
-      </c>
-      <c r="D33" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="E33" s="5"/>
-      <c r="F33" s="5">
-        <v>2</v>
-      </c>
-      <c r="G33" s="5" t="s">
-        <v>59</v>
-      </c>
+    <row r="33" spans="1:7" s="8" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A33" s="6"/>
+      <c r="B33" s="6"/>
+      <c r="C33" s="7"/>
+      <c r="D33" s="7"/>
+      <c r="E33" s="7"/>
+      <c r="F33" s="7"/>
+      <c r="G33" s="7"/>
     </row>
     <row r="34" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A34" s="4"/>
-      <c r="B34" s="4"/>
+      <c r="B34" s="4" t="s">
+        <v>54</v>
+      </c>
       <c r="C34" s="5" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D34" s="5" t="s">
         <v>27</v>
       </c>
       <c r="E34" s="5"/>
       <c r="F34" s="5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G34" s="5" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="35" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A35" s="4"/>
       <c r="B35" s="4"/>
       <c r="C35" s="5" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D35" s="5" t="s">
         <v>27</v>
       </c>
       <c r="E35" s="5"/>
       <c r="F35" s="5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G35" s="5" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="36" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A36" s="4"/>
       <c r="B36" s="4"/>
       <c r="C36" s="5" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D36" s="5" t="s">
         <v>27</v>
@@ -1563,82 +1566,82 @@
         <v>2</v>
       </c>
       <c r="G36" s="5" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="37" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A37" s="4"/>
       <c r="B37" s="4"/>
       <c r="C37" s="5" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D37" s="5" t="s">
         <v>27</v>
       </c>
       <c r="E37" s="5"/>
       <c r="F37" s="5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G37" s="5" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="38" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A38" s="4"/>
       <c r="B38" s="4"/>
       <c r="C38" s="5" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D38" s="5" t="s">
         <v>27</v>
       </c>
       <c r="E38" s="5"/>
       <c r="F38" s="5">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G38" s="5" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="39" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A39" s="4"/>
       <c r="B39" s="4"/>
       <c r="C39" s="5" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D39" s="5" t="s">
         <v>27</v>
       </c>
       <c r="E39" s="5"/>
       <c r="F39" s="5">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G39" s="5" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="40" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A40" s="4"/>
       <c r="B40" s="4"/>
       <c r="C40" s="5" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D40" s="5" t="s">
         <v>27</v>
       </c>
       <c r="E40" s="5"/>
       <c r="F40" s="5">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="G40" s="5" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="41" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A41" s="4"/>
       <c r="B41" s="4"/>
       <c r="C41" s="5" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D41" s="5" t="s">
         <v>27</v>
@@ -1648,112 +1651,112 @@
         <v>1</v>
       </c>
       <c r="G41" s="5" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="42" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A42" s="4"/>
       <c r="B42" s="4"/>
       <c r="C42" s="5" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D42" s="5" t="s">
         <v>27</v>
       </c>
       <c r="E42" s="5"/>
       <c r="F42" s="5">
+        <v>1</v>
+      </c>
+      <c r="G42" s="5" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A43" s="4"/>
+      <c r="B43" s="4"/>
+      <c r="C43" s="5" t="s">
+        <v>119</v>
+      </c>
+      <c r="D43" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="E43" s="5"/>
+      <c r="F43" s="5">
         <v>4</v>
       </c>
-      <c r="G42" s="5" t="s">
+      <c r="G43" s="5" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="43" spans="1:7" s="8" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A43" s="6"/>
-      <c r="B43" s="6"/>
-      <c r="C43" s="7"/>
-      <c r="D43" s="7"/>
-      <c r="E43" s="7"/>
-      <c r="F43" s="7"/>
-      <c r="G43" s="7"/>
-    </row>
-    <row r="44" spans="1:7" s="9" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A44" s="4"/>
-      <c r="B44" s="4" t="s">
+    <row r="44" spans="1:7" s="8" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A44" s="6"/>
+      <c r="B44" s="6"/>
+      <c r="C44" s="7"/>
+      <c r="D44" s="7"/>
+      <c r="E44" s="7"/>
+      <c r="F44" s="7"/>
+      <c r="G44" s="7"/>
+    </row>
+    <row r="45" spans="1:7" s="9" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A45" s="4"/>
+      <c r="B45" s="4" t="s">
         <v>109</v>
       </c>
-      <c r="C44" s="5" t="s">
+      <c r="C45" s="5" t="s">
         <v>120</v>
       </c>
-      <c r="D44" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="E44" s="5"/>
-      <c r="F44" s="5">
-        <v>2</v>
-      </c>
-      <c r="G44" s="5" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="45" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A45" s="4"/>
-      <c r="B45" s="4"/>
-      <c r="C45" s="5" t="s">
-        <v>40</v>
-      </c>
       <c r="D45" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="E45" s="5" t="s">
-        <v>80</v>
-      </c>
+      <c r="E45" s="5"/>
       <c r="F45" s="5">
         <v>2</v>
       </c>
       <c r="G45" s="5" t="s">
-        <v>136</v>
+        <v>69</v>
       </c>
     </row>
     <row r="46" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A46" s="4"/>
       <c r="B46" s="4"/>
       <c r="C46" s="5" t="s">
-        <v>121</v>
+        <v>40</v>
       </c>
       <c r="D46" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="E46" s="5"/>
+      <c r="E46" s="5" t="s">
+        <v>80</v>
+      </c>
       <c r="F46" s="5">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="G46" s="5" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="47" spans="1:7" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A47" s="4"/>
       <c r="B47" s="4"/>
       <c r="C47" s="5" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D47" s="5" t="s">
         <v>27</v>
       </c>
       <c r="E47" s="5"/>
       <c r="F47" s="5">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="G47" s="5" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="48" spans="1:7" ht="27" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A48" s="4"/>
       <c r="B48" s="4"/>
       <c r="C48" s="5" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="D48" s="5" t="s">
         <v>27</v>
@@ -1763,31 +1766,31 @@
         <v>2</v>
       </c>
       <c r="G48" s="5" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="49" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" ht="27" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A49" s="4"/>
       <c r="B49" s="4"/>
       <c r="C49" s="5" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D49" s="5" t="s">
         <v>27</v>
       </c>
       <c r="E49" s="5"/>
       <c r="F49" s="5">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G49" s="5" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="50" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A50" s="4"/>
       <c r="B50" s="4"/>
       <c r="C50" s="5" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="D50" s="5" t="s">
         <v>27</v>
@@ -1797,48 +1800,48 @@
         <v>4</v>
       </c>
       <c r="G50" s="5" t="s">
-        <v>70</v>
+        <v>140</v>
       </c>
     </row>
     <row r="51" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A51" s="4"/>
       <c r="B51" s="4"/>
       <c r="C51" s="5" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D51" s="5" t="s">
         <v>27</v>
       </c>
       <c r="E51" s="5"/>
       <c r="F51" s="5">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G51" s="5" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="52" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A52" s="4"/>
       <c r="B52" s="4"/>
       <c r="C52" s="5" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D52" s="5" t="s">
         <v>27</v>
       </c>
       <c r="E52" s="5"/>
       <c r="F52" s="5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G52" s="5" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="53" spans="1:7" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A53" s="4"/>
       <c r="B53" s="4"/>
       <c r="C53" s="5" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D53" s="5" t="s">
         <v>27</v>
@@ -1848,99 +1851,99 @@
         <v>1</v>
       </c>
       <c r="G53" s="5" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="54" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7" ht="27" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A54" s="4"/>
       <c r="B54" s="4"/>
       <c r="C54" s="5" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D54" s="5" t="s">
         <v>27</v>
       </c>
       <c r="E54" s="5"/>
       <c r="F54" s="5">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="G54" s="5" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="55" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A55" s="4"/>
       <c r="B55" s="4"/>
       <c r="C55" s="5" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D55" s="5" t="s">
         <v>27</v>
       </c>
       <c r="E55" s="5"/>
       <c r="F55" s="5">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="G55" s="5" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="56" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A56" s="4"/>
       <c r="B56" s="4"/>
       <c r="C56" s="5" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D56" s="5" t="s">
         <v>27</v>
       </c>
       <c r="E56" s="5"/>
       <c r="F56" s="5">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="G56" s="5" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="57" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A57" s="4"/>
       <c r="B57" s="4"/>
       <c r="C57" s="5" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D57" s="5" t="s">
         <v>27</v>
       </c>
       <c r="E57" s="5"/>
       <c r="F57" s="5">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="G57" s="5" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="58" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A58" s="4"/>
       <c r="B58" s="4"/>
       <c r="C58" s="5" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="D58" s="5" t="s">
         <v>27</v>
       </c>
       <c r="E58" s="5"/>
       <c r="F58" s="5">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="G58" s="5" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="59" spans="1:7" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A59" s="4"/>
       <c r="B59" s="4"/>
       <c r="C59" s="5" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="D59" s="5" t="s">
         <v>27</v>
@@ -1950,59 +1953,76 @@
         <v>1</v>
       </c>
       <c r="G59" s="5" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A60" s="4"/>
+      <c r="B60" s="4"/>
+      <c r="C60" s="5" t="s">
+        <v>135</v>
+      </c>
+      <c r="D60" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="E60" s="5"/>
+      <c r="F60" s="5">
+        <v>1</v>
+      </c>
+      <c r="G60" s="5" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="60" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A60" s="3" t="s">
+    <row r="61" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A61" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="B60" s="3" t="s">
+      <c r="B61" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="C60" s="3"/>
-      <c r="D60" s="3"/>
-      <c r="E60" s="3"/>
-      <c r="F60" s="3"/>
-      <c r="G60" s="3" t="s">
+      <c r="C61" s="3"/>
+      <c r="D61" s="3"/>
+      <c r="E61" s="3"/>
+      <c r="F61" s="3"/>
+      <c r="G61" s="3" t="s">
         <v>12</v>
-      </c>
-    </row>
-    <row r="61" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A61" s="4"/>
-      <c r="B61" s="4"/>
-      <c r="C61" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="D61" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="E61" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="F61" s="5">
-        <v>1</v>
-      </c>
-      <c r="G61" s="5" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="62" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A62" s="4"/>
       <c r="B62" s="4"/>
       <c r="C62" s="5" t="s">
-        <v>28</v>
+        <v>9</v>
       </c>
       <c r="D62" s="5" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="E62" s="5" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="F62" s="5">
         <v>1</v>
       </c>
       <c r="G62" s="5" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A63" s="4"/>
+      <c r="B63" s="4"/>
+      <c r="C63" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="D63" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="E63" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="F63" s="5">
+        <v>1</v>
+      </c>
+      <c r="G63" s="5" t="s">
         <v>32</v>
       </c>
     </row>

--- a/CR - Cost Report/BOM/FR/FRA0100_to_FRA0300.xlsx
+++ b/CR - Cost Report/BOM/FR/FRA0100_to_FRA0300.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\robin\Documents\Cours centrale\EPSA\Optimus\STUF2019\CR - Cost Report\BOM\FR\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\batiste\Documents\Universidad\ECL\EPSA\STUF2019\CR - Cost Report\BOM\FR\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E5B59A8-1B5D-46FE-BCB6-5E970CC2180B}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F80F216-9001-475A-8781-74E9289D6ABD}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -924,9 +924,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G63"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E6" sqref="E6"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A17" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G25" sqref="G25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/CR - Cost Report/BOM/FR/FRA0100_to_FRA0300.xlsx
+++ b/CR - Cost Report/BOM/FR/FRA0100_to_FRA0300.xlsx
@@ -1,21 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21601"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\batiste\Documents\Universidad\ECL\EPSA\STUF2019\CR - Cost Report\BOM\FR\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Optimus_2019\STUF2019\CR - Cost Report\BOM\FR\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F80F216-9001-475A-8781-74E9289D6ABD}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20736" windowHeight="11160"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -75,12 +74,6 @@
     <t>Impact attenuator</t>
   </si>
   <si>
-    <t>FR_A0001</t>
-  </si>
-  <si>
-    <t>FR_A0002</t>
-  </si>
-  <si>
     <t>FR_A0003</t>
   </si>
   <si>
@@ -491,11 +484,17 @@
   <si>
     <t>FR_01006</t>
   </si>
+  <si>
+    <t>FR_A0200</t>
+  </si>
+  <si>
+    <t>FR_A0100</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -921,27 +920,27 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G63"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A17" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G25" sqref="G25"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="24.5703125" customWidth="1"/>
-    <col min="2" max="2" width="26.28515625" customWidth="1"/>
-    <col min="3" max="3" width="22.85546875" customWidth="1"/>
-    <col min="4" max="4" width="23.28515625" customWidth="1"/>
-    <col min="5" max="5" width="45.85546875" customWidth="1"/>
-    <col min="6" max="6" width="14.7109375" customWidth="1"/>
-    <col min="7" max="7" width="16.85546875" customWidth="1"/>
-    <col min="8" max="8" width="11.5703125" customWidth="1"/>
+    <col min="1" max="1" width="24.5546875" customWidth="1"/>
+    <col min="2" max="2" width="26.33203125" customWidth="1"/>
+    <col min="3" max="3" width="22.88671875" customWidth="1"/>
+    <col min="4" max="4" width="23.33203125" customWidth="1"/>
+    <col min="5" max="5" width="45.88671875" customWidth="1"/>
+    <col min="6" max="6" width="14.6640625" customWidth="1"/>
+    <col min="7" max="7" width="16.88671875" customWidth="1"/>
+    <col min="8" max="8" width="11.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="19.149999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" ht="19.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -949,7 +948,7 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>2</v>
@@ -964,7 +963,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="3" t="s">
         <v>6</v>
       </c>
@@ -976,120 +975,120 @@
       <c r="E2" s="3"/>
       <c r="F2" s="3"/>
       <c r="G2" s="3" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="4"/>
       <c r="B3" s="4"/>
       <c r="C3" s="5" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="E3" s="5" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="F3" s="5">
         <v>87</v>
       </c>
       <c r="G3" s="5" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="4"/>
       <c r="B4" s="4"/>
       <c r="C4" s="5" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="E4" s="5" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="F4" s="5">
         <v>1</v>
       </c>
       <c r="G4" s="5" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="4"/>
       <c r="B5" s="4"/>
       <c r="C5" s="5" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="E5" s="5" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="F5" s="5">
         <v>2</v>
       </c>
       <c r="G5" s="5" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A6" s="4"/>
       <c r="B6" s="4"/>
       <c r="C6" s="5" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="E6" s="5"/>
       <c r="F6" s="5">
         <v>1</v>
       </c>
       <c r="G6" s="5" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A7" s="4"/>
       <c r="B7" s="4"/>
       <c r="C7" s="5" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="E7" s="5"/>
       <c r="F7" s="5">
         <v>1</v>
       </c>
       <c r="G7" s="5" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A8" s="4"/>
       <c r="B8" s="4"/>
       <c r="C8" s="5" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="E8" s="5" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="F8" s="5">
         <v>2</v>
       </c>
       <c r="G8" s="5" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A9" s="3" t="s">
         <v>6</v>
       </c>
@@ -1101,147 +1100,147 @@
       <c r="E9" s="3"/>
       <c r="F9" s="3"/>
       <c r="G9" s="3" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" ht="39.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" ht="40.799999999999997" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A10" s="4" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="D10" s="5" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="E10" s="5" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="F10" s="5">
         <v>32</v>
       </c>
       <c r="G10" s="5" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A11" s="4"/>
       <c r="B11" s="4"/>
       <c r="C11" s="5" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="D11" s="5" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="E11" s="5" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="F11" s="5">
         <v>2</v>
       </c>
       <c r="G11" s="5" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A12" s="4"/>
       <c r="B12" s="4"/>
       <c r="C12" s="5" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="D12" s="5" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="E12" s="5" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="F12" s="5">
         <v>2</v>
       </c>
       <c r="G12" s="5" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A13" s="4"/>
       <c r="B13" s="4"/>
       <c r="C13" s="5" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="D13" s="5" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="E13" s="5" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="F13" s="5">
         <v>4</v>
       </c>
       <c r="G13" s="5" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A14" s="4"/>
       <c r="B14" s="4"/>
       <c r="C14" s="5" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="D14" s="5" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="E14" s="5" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="F14" s="5">
         <v>2</v>
       </c>
       <c r="G14" s="5" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A15" s="4"/>
       <c r="B15" s="4"/>
       <c r="C15" s="5" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="D15" s="5" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="E15" s="5" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="F15" s="5">
         <v>2</v>
       </c>
       <c r="G15" s="5" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A16" s="4"/>
       <c r="B16" s="4"/>
       <c r="C16" s="5" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="D16" s="5" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="E16" s="5" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="F16" s="5">
         <v>2</v>
       </c>
       <c r="G16" s="5" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" s="8" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" s="8" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A17" s="6"/>
       <c r="B17" s="6"/>
       <c r="C17" s="7"/>
@@ -1250,264 +1249,264 @@
       <c r="F17" s="7"/>
       <c r="G17" s="7"/>
     </row>
-    <row r="18" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A18" s="4"/>
       <c r="B18" s="4" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C18" s="5" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="D18" s="5" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="E18" s="5"/>
       <c r="F18" s="5">
         <v>2</v>
       </c>
       <c r="G18" s="5" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A19" s="4"/>
       <c r="B19" s="4"/>
       <c r="C19" s="5" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="D19" s="5" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="E19" s="5"/>
       <c r="F19" s="5">
         <v>4</v>
       </c>
       <c r="G19" s="5" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A20" s="4"/>
       <c r="B20" s="4"/>
       <c r="C20" s="5" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="D20" s="5" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="E20" s="5"/>
       <c r="F20" s="5">
         <v>4</v>
       </c>
       <c r="G20" s="5" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A21" s="4"/>
       <c r="B21" s="4"/>
       <c r="C21" s="5" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="D21" s="5" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="E21" s="5"/>
       <c r="F21" s="5">
         <v>3</v>
       </c>
       <c r="G21" s="5" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A22" s="4"/>
       <c r="B22" s="4"/>
       <c r="C22" s="5" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="D22" s="5" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="E22" s="5"/>
       <c r="F22" s="5">
         <v>4</v>
       </c>
       <c r="G22" s="5" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A23" s="4"/>
       <c r="B23" s="4"/>
       <c r="C23" s="5" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="D23" s="5" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="E23" s="5"/>
       <c r="F23" s="5">
         <v>2</v>
       </c>
       <c r="G23" s="5" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A24" s="4"/>
       <c r="B24" s="4"/>
       <c r="C24" s="5" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="D24" s="5" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="E24" s="5"/>
       <c r="F24" s="5">
         <v>1</v>
       </c>
       <c r="G24" s="5" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A25" s="4"/>
       <c r="B25" s="4"/>
       <c r="C25" s="5" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="D25" s="5" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="E25" s="5"/>
       <c r="F25" s="5">
         <v>1</v>
       </c>
       <c r="G25" s="5" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A26" s="4"/>
       <c r="B26" s="4"/>
       <c r="C26" s="5" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="D26" s="5" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="E26" s="5"/>
       <c r="F26" s="5">
         <v>1</v>
       </c>
       <c r="G26" s="5" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A27" s="4"/>
       <c r="B27" s="4"/>
       <c r="C27" s="5" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="D27" s="5" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="E27" s="5"/>
       <c r="F27" s="5">
         <v>1</v>
       </c>
       <c r="G27" s="5" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A28" s="4"/>
       <c r="B28" s="4"/>
       <c r="C28" s="5" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="D28" s="5" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="E28" s="5"/>
       <c r="F28" s="5">
         <v>1</v>
       </c>
       <c r="G28" s="5" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A29" s="4"/>
       <c r="B29" s="4"/>
       <c r="C29" s="5" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="D29" s="5" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="E29" s="5"/>
       <c r="F29" s="5">
         <v>1</v>
       </c>
       <c r="G29" s="5" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A30" s="4"/>
       <c r="B30" s="4"/>
       <c r="C30" s="5" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="D30" s="5" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="E30" s="5"/>
       <c r="F30" s="5">
         <v>3</v>
       </c>
       <c r="G30" s="5" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A31" s="4"/>
       <c r="B31" s="4"/>
       <c r="C31" s="5" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="D31" s="5" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="E31" s="5"/>
       <c r="F31" s="5">
         <v>1</v>
       </c>
       <c r="G31" s="5" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A32" s="4"/>
       <c r="B32" s="4"/>
       <c r="C32" s="5" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="D32" s="5" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="E32" s="5"/>
       <c r="F32" s="5">
         <v>2</v>
       </c>
       <c r="G32" s="5" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="33" spans="1:7" s="8" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" s="8" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A33" s="6"/>
       <c r="B33" s="6"/>
       <c r="C33" s="7"/>
@@ -1516,179 +1515,179 @@
       <c r="F33" s="7"/>
       <c r="G33" s="7"/>
     </row>
-    <row r="34" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A34" s="4"/>
       <c r="B34" s="4" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C34" s="5" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="D34" s="5" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="E34" s="5"/>
       <c r="F34" s="5">
         <v>2</v>
       </c>
       <c r="G34" s="5" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="35" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A35" s="4"/>
       <c r="B35" s="4"/>
       <c r="C35" s="5" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="D35" s="5" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="E35" s="5"/>
       <c r="F35" s="5">
         <v>1</v>
       </c>
       <c r="G35" s="5" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="36" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A36" s="4"/>
       <c r="B36" s="4"/>
       <c r="C36" s="5" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="D36" s="5" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="E36" s="5"/>
       <c r="F36" s="5">
         <v>2</v>
       </c>
       <c r="G36" s="5" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="37" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A37" s="4"/>
       <c r="B37" s="4"/>
       <c r="C37" s="5" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="D37" s="5" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="E37" s="5"/>
       <c r="F37" s="5">
         <v>2</v>
       </c>
       <c r="G37" s="5" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="38" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A38" s="4"/>
       <c r="B38" s="4"/>
       <c r="C38" s="5" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="D38" s="5" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="E38" s="5"/>
       <c r="F38" s="5">
         <v>1</v>
       </c>
       <c r="G38" s="5" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="39" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A39" s="4"/>
       <c r="B39" s="4"/>
       <c r="C39" s="5" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="D39" s="5" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="E39" s="5"/>
       <c r="F39" s="5">
         <v>3</v>
       </c>
       <c r="G39" s="5" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="40" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A40" s="4"/>
       <c r="B40" s="4"/>
       <c r="C40" s="5" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="D40" s="5" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="E40" s="5"/>
       <c r="F40" s="5">
         <v>4</v>
       </c>
       <c r="G40" s="5" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="41" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A41" s="4"/>
       <c r="B41" s="4"/>
       <c r="C41" s="5" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="D41" s="5" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="E41" s="5"/>
       <c r="F41" s="5">
         <v>1</v>
       </c>
       <c r="G41" s="5" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="42" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A42" s="4"/>
       <c r="B42" s="4"/>
       <c r="C42" s="5" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="D42" s="5" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="E42" s="5"/>
       <c r="F42" s="5">
         <v>1</v>
       </c>
       <c r="G42" s="5" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="43" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A43" s="4"/>
       <c r="B43" s="4"/>
       <c r="C43" s="5" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="D43" s="5" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="E43" s="5"/>
       <c r="F43" s="5">
         <v>4</v>
       </c>
       <c r="G43" s="5" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="44" spans="1:7" s="8" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" s="8" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A44" s="6"/>
       <c r="B44" s="6"/>
       <c r="C44" s="7"/>
@@ -1697,283 +1696,283 @@
       <c r="F44" s="7"/>
       <c r="G44" s="7"/>
     </row>
-    <row r="45" spans="1:7" s="9" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:7" s="9" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A45" s="4"/>
       <c r="B45" s="4" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="C45" s="5" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="D45" s="5" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="E45" s="5"/>
       <c r="F45" s="5">
         <v>2</v>
       </c>
       <c r="G45" s="5" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="46" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A46" s="4"/>
       <c r="B46" s="4"/>
       <c r="C46" s="5" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="D46" s="5" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="E46" s="5" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="F46" s="5">
         <v>2</v>
       </c>
       <c r="G46" s="5" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="47" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A47" s="4"/>
       <c r="B47" s="4"/>
       <c r="C47" s="5" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="D47" s="5" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="E47" s="5"/>
       <c r="F47" s="5">
         <v>6</v>
       </c>
       <c r="G47" s="5" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="48" spans="1:7" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A48" s="4"/>
       <c r="B48" s="4"/>
       <c r="C48" s="5" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="D48" s="5" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="E48" s="5"/>
       <c r="F48" s="5">
         <v>2</v>
       </c>
       <c r="G48" s="5" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="49" spans="1:7" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A49" s="4"/>
       <c r="B49" s="4"/>
       <c r="C49" s="5" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="D49" s="5" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="E49" s="5"/>
       <c r="F49" s="5">
         <v>2</v>
       </c>
       <c r="G49" s="5" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="50" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A50" s="4"/>
       <c r="B50" s="4"/>
       <c r="C50" s="5" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="D50" s="5" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="E50" s="5"/>
       <c r="F50" s="5">
         <v>4</v>
       </c>
       <c r="G50" s="5" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="51" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A51" s="4"/>
       <c r="B51" s="4"/>
       <c r="C51" s="5" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="D51" s="5" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="E51" s="5"/>
       <c r="F51" s="5">
         <v>4</v>
       </c>
       <c r="G51" s="5" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="52" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A52" s="4"/>
       <c r="B52" s="4"/>
       <c r="C52" s="5" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="D52" s="5" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="E52" s="5"/>
       <c r="F52" s="5">
         <v>2</v>
       </c>
       <c r="G52" s="5" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="53" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A53" s="4"/>
       <c r="B53" s="4"/>
       <c r="C53" s="5" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="D53" s="5" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="E53" s="5"/>
       <c r="F53" s="5">
         <v>1</v>
       </c>
       <c r="G53" s="5" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="54" spans="1:7" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A54" s="4"/>
       <c r="B54" s="4"/>
       <c r="C54" s="5" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="D54" s="5" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="E54" s="5"/>
       <c r="F54" s="5">
         <v>1</v>
       </c>
       <c r="G54" s="5" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="55" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A55" s="4"/>
       <c r="B55" s="4"/>
       <c r="C55" s="5" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="D55" s="5" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="E55" s="5"/>
       <c r="F55" s="5">
         <v>4</v>
       </c>
       <c r="G55" s="5" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="56" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A56" s="4"/>
       <c r="B56" s="4"/>
       <c r="C56" s="5" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="D56" s="5" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="E56" s="5"/>
       <c r="F56" s="5">
         <v>8</v>
       </c>
       <c r="G56" s="5" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="57" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A57" s="4"/>
       <c r="B57" s="4"/>
       <c r="C57" s="5" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="D57" s="5" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="E57" s="5"/>
       <c r="F57" s="5">
         <v>2</v>
       </c>
       <c r="G57" s="5" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="58" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A58" s="4"/>
       <c r="B58" s="4"/>
       <c r="C58" s="5" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="D58" s="5" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="E58" s="5"/>
       <c r="F58" s="5">
         <v>12</v>
       </c>
       <c r="G58" s="5" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="59" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A59" s="4"/>
       <c r="B59" s="4"/>
       <c r="C59" s="5" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="D59" s="5" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="E59" s="5"/>
       <c r="F59" s="5">
         <v>1</v>
       </c>
       <c r="G59" s="5" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="60" spans="1:7" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A60" s="4"/>
       <c r="B60" s="4"/>
       <c r="C60" s="5" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="D60" s="5" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="E60" s="5"/>
       <c r="F60" s="5">
         <v>1</v>
       </c>
       <c r="G60" s="5" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="61" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A61" s="3" t="s">
         <v>6</v>
       </c>
@@ -1985,45 +1984,45 @@
       <c r="E61" s="3"/>
       <c r="F61" s="3"/>
       <c r="G61" s="3" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="62" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A62" s="4"/>
       <c r="B62" s="4"/>
       <c r="C62" s="5" t="s">
         <v>9</v>
       </c>
       <c r="D62" s="5" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="E62" s="5" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="F62" s="5">
         <v>1</v>
       </c>
       <c r="G62" s="5" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="63" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A63" s="4"/>
       <c r="B63" s="4"/>
       <c r="C63" s="5" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="D63" s="5" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="E63" s="5" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="F63" s="5">
         <v>1</v>
       </c>
       <c r="G63" s="5" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
   </sheetData>

--- a/CR - Cost Report/BOM/FR/FRA0100_to_FRA0300.xlsx
+++ b/CR - Cost Report/BOM/FR/FRA0100_to_FRA0300.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21601"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Optimus_2019\STUF2019\CR - Cost Report\BOM\FR\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\robin\Documents\Cours centrale\EPSA\Optimus\STUF2019\CR - Cost Report\BOM\FR\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0CB182FF-AA17-4365-8187-D97520B9ECD1}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20736" windowHeight="11160"/>
+    <workbookView xWindow="5115" yWindow="3045" windowWidth="15375" windowHeight="7875" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -18,11 +19,6 @@
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -494,7 +490,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -920,27 +916,27 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G63"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G3" sqref="G3"/>
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A38" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C23" sqref="A23:XFD23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="24.5546875" customWidth="1"/>
-    <col min="2" max="2" width="26.33203125" customWidth="1"/>
-    <col min="3" max="3" width="22.88671875" customWidth="1"/>
-    <col min="4" max="4" width="23.33203125" customWidth="1"/>
-    <col min="5" max="5" width="45.88671875" customWidth="1"/>
-    <col min="6" max="6" width="14.6640625" customWidth="1"/>
-    <col min="7" max="7" width="16.88671875" customWidth="1"/>
-    <col min="8" max="8" width="11.5546875" customWidth="1"/>
+    <col min="1" max="1" width="24.5703125" customWidth="1"/>
+    <col min="2" max="2" width="26.28515625" customWidth="1"/>
+    <col min="3" max="3" width="22.85546875" customWidth="1"/>
+    <col min="4" max="4" width="23.28515625" customWidth="1"/>
+    <col min="5" max="5" width="45.85546875" customWidth="1"/>
+    <col min="6" max="6" width="14.7109375" customWidth="1"/>
+    <col min="7" max="7" width="16.85546875" customWidth="1"/>
+    <col min="8" max="8" width="11.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="19.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:7" ht="19.149999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -963,7 +959,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
         <v>6</v>
       </c>
@@ -978,7 +974,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="4"/>
       <c r="B3" s="4"/>
       <c r="C3" s="5" t="s">
@@ -997,7 +993,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="4"/>
       <c r="B4" s="4"/>
       <c r="C4" s="5" t="s">
@@ -1016,7 +1012,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="4"/>
       <c r="B5" s="4"/>
       <c r="C5" s="5" t="s">
@@ -1035,7 +1031,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="4"/>
       <c r="B6" s="4"/>
       <c r="C6" s="5" t="s">
@@ -1052,7 +1048,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="4"/>
       <c r="B7" s="4"/>
       <c r="C7" s="5" t="s">
@@ -1069,7 +1065,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="8" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="4"/>
       <c r="B8" s="4"/>
       <c r="C8" s="5" t="s">
@@ -1088,7 +1084,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="9" spans="1:7" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="3" t="s">
         <v>6</v>
       </c>
@@ -1103,7 +1099,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="10" spans="1:7" ht="40.799999999999997" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:7" ht="39.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="4" t="s">
         <v>91</v>
       </c>
@@ -1126,7 +1122,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="11" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="4"/>
       <c r="B11" s="4"/>
       <c r="C11" s="5" t="s">
@@ -1145,7 +1141,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="12" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="4"/>
       <c r="B12" s="4"/>
       <c r="C12" s="5" t="s">
@@ -1164,7 +1160,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="13" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="4"/>
       <c r="B13" s="4"/>
       <c r="C13" s="5" t="s">
@@ -1183,7 +1179,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="14" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="4"/>
       <c r="B14" s="4"/>
       <c r="C14" s="5" t="s">
@@ -1202,7 +1198,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="15" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="4"/>
       <c r="B15" s="4"/>
       <c r="C15" s="5" t="s">
@@ -1221,7 +1217,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="16" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="4"/>
       <c r="B16" s="4"/>
       <c r="C16" s="5" t="s">
@@ -1240,7 +1236,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="17" spans="1:7" s="8" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:7" s="8" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="6"/>
       <c r="B17" s="6"/>
       <c r="C17" s="7"/>
@@ -1249,7 +1245,7 @@
       <c r="F17" s="7"/>
       <c r="G17" s="7"/>
     </row>
-    <row r="18" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="4"/>
       <c r="B18" s="4" t="s">
         <v>51</v>
@@ -1268,7 +1264,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="19" spans="1:7" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:7" ht="27" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="4"/>
       <c r="B19" s="4"/>
       <c r="C19" s="5" t="s">
@@ -1285,7 +1281,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="20" spans="1:7" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:7" ht="27" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="4"/>
       <c r="B20" s="4"/>
       <c r="C20" s="5" t="s">
@@ -1302,7 +1298,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="21" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" s="4"/>
       <c r="B21" s="4"/>
       <c r="C21" s="5" t="s">
@@ -1319,7 +1315,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="22" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A22" s="4"/>
       <c r="B22" s="4"/>
       <c r="C22" s="5" t="s">
@@ -1336,7 +1332,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="23" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A23" s="4"/>
       <c r="B23" s="4"/>
       <c r="C23" s="5" t="s">
@@ -1353,7 +1349,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="24" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A24" s="4"/>
       <c r="B24" s="4"/>
       <c r="C24" s="5" t="s">
@@ -1370,7 +1366,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="25" spans="1:7" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:7" ht="27" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A25" s="4"/>
       <c r="B25" s="4"/>
       <c r="C25" s="5" t="s">
@@ -1387,7 +1383,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="26" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A26" s="4"/>
       <c r="B26" s="4"/>
       <c r="C26" s="5" t="s">
@@ -1404,7 +1400,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="27" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A27" s="4"/>
       <c r="B27" s="4"/>
       <c r="C27" s="5" t="s">
@@ -1421,7 +1417,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="28" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:7" ht="27" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A28" s="4"/>
       <c r="B28" s="4"/>
       <c r="C28" s="5" t="s">
@@ -1438,7 +1434,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="29" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A29" s="4"/>
       <c r="B29" s="4"/>
       <c r="C29" s="5" t="s">
@@ -1455,7 +1451,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="30" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A30" s="4"/>
       <c r="B30" s="4"/>
       <c r="C30" s="5" t="s">
@@ -1472,7 +1468,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="31" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A31" s="4"/>
       <c r="B31" s="4"/>
       <c r="C31" s="5" t="s">
@@ -1489,7 +1485,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="32" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A32" s="4"/>
       <c r="B32" s="4"/>
       <c r="C32" s="5" t="s">
@@ -1506,7 +1502,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="33" spans="1:7" s="8" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:7" s="8" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A33" s="6"/>
       <c r="B33" s="6"/>
       <c r="C33" s="7"/>
@@ -1515,7 +1511,7 @@
       <c r="F33" s="7"/>
       <c r="G33" s="7"/>
     </row>
-    <row r="34" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A34" s="4"/>
       <c r="B34" s="4" t="s">
         <v>52</v>
@@ -1534,7 +1530,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="35" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A35" s="4"/>
       <c r="B35" s="4"/>
       <c r="C35" s="5" t="s">
@@ -1551,7 +1547,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="36" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A36" s="4"/>
       <c r="B36" s="4"/>
       <c r="C36" s="5" t="s">
@@ -1568,7 +1564,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="37" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A37" s="4"/>
       <c r="B37" s="4"/>
       <c r="C37" s="5" t="s">
@@ -1585,7 +1581,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="38" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A38" s="4"/>
       <c r="B38" s="4"/>
       <c r="C38" s="5" t="s">
@@ -1602,7 +1598,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="39" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A39" s="4"/>
       <c r="B39" s="4"/>
       <c r="C39" s="5" t="s">
@@ -1619,7 +1615,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="40" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A40" s="4"/>
       <c r="B40" s="4"/>
       <c r="C40" s="5" t="s">
@@ -1636,7 +1632,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="41" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A41" s="4"/>
       <c r="B41" s="4"/>
       <c r="C41" s="5" t="s">
@@ -1653,7 +1649,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="42" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A42" s="4"/>
       <c r="B42" s="4"/>
       <c r="C42" s="5" t="s">
@@ -1670,7 +1666,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="43" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A43" s="4"/>
       <c r="B43" s="4"/>
       <c r="C43" s="5" t="s">
@@ -1687,7 +1683,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="44" spans="1:7" s="8" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:7" s="8" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A44" s="6"/>
       <c r="B44" s="6"/>
       <c r="C44" s="7"/>
@@ -1696,7 +1692,7 @@
       <c r="F44" s="7"/>
       <c r="G44" s="7"/>
     </row>
-    <row r="45" spans="1:7" s="9" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:7" s="9" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A45" s="4"/>
       <c r="B45" s="4" t="s">
         <v>107</v>
@@ -1715,7 +1711,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="46" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A46" s="4"/>
       <c r="B46" s="4"/>
       <c r="C46" s="5" t="s">
@@ -1734,7 +1730,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="47" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A47" s="4"/>
       <c r="B47" s="4"/>
       <c r="C47" s="5" t="s">
@@ -1751,7 +1747,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="48" spans="1:7" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:7" ht="27" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A48" s="4"/>
       <c r="B48" s="4"/>
       <c r="C48" s="5" t="s">
@@ -1768,7 +1764,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="49" spans="1:7" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:7" ht="27" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A49" s="4"/>
       <c r="B49" s="4"/>
       <c r="C49" s="5" t="s">
@@ -1785,7 +1781,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="50" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A50" s="4"/>
       <c r="B50" s="4"/>
       <c r="C50" s="5" t="s">
@@ -1802,7 +1798,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="51" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A51" s="4"/>
       <c r="B51" s="4"/>
       <c r="C51" s="5" t="s">
@@ -1819,7 +1815,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="52" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A52" s="4"/>
       <c r="B52" s="4"/>
       <c r="C52" s="5" t="s">
@@ -1836,7 +1832,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="53" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A53" s="4"/>
       <c r="B53" s="4"/>
       <c r="C53" s="5" t="s">
@@ -1853,7 +1849,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="54" spans="1:7" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:7" ht="27" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A54" s="4"/>
       <c r="B54" s="4"/>
       <c r="C54" s="5" t="s">
@@ -1870,7 +1866,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="55" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A55" s="4"/>
       <c r="B55" s="4"/>
       <c r="C55" s="5" t="s">
@@ -1887,7 +1883,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="56" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A56" s="4"/>
       <c r="B56" s="4"/>
       <c r="C56" s="5" t="s">
@@ -1904,7 +1900,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="57" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A57" s="4"/>
       <c r="B57" s="4"/>
       <c r="C57" s="5" t="s">
@@ -1921,7 +1917,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="58" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A58" s="4"/>
       <c r="B58" s="4"/>
       <c r="C58" s="5" t="s">
@@ -1938,7 +1934,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="59" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A59" s="4"/>
       <c r="B59" s="4"/>
       <c r="C59" s="5" t="s">
@@ -1955,7 +1951,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="60" spans="1:7" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:7" ht="27" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A60" s="4"/>
       <c r="B60" s="4"/>
       <c r="C60" s="5" t="s">
@@ -1972,7 +1968,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="61" spans="1:7" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A61" s="3" t="s">
         <v>6</v>
       </c>
@@ -1987,7 +1983,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="62" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A62" s="4"/>
       <c r="B62" s="4"/>
       <c r="C62" s="5" t="s">
@@ -2006,7 +2002,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="63" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A63" s="4"/>
       <c r="B63" s="4"/>
       <c r="C63" s="5" t="s">

--- a/CR - Cost Report/BOM/FR/FRA0100_to_FRA0300.xlsx
+++ b/CR - Cost Report/BOM/FR/FRA0100_to_FRA0300.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21601"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21629"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\robin\Documents\Cours centrale\EPSA\Optimus\STUF2019\CR - Cost Report\BOM\FR\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0CB182FF-AA17-4365-8187-D97520B9ECD1}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB0DAFBF-6B8D-4123-84AA-AE3D9811EBC3}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5115" yWindow="3045" windowWidth="15375" windowHeight="7875" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -145,9 +145,6 @@
     <t>FR_03002</t>
   </si>
   <si>
-    <t>Steel aluminium plate (thickness 1,5mm)</t>
-  </si>
-  <si>
     <t>25CrMo4 ;  30*2 (mm)</t>
   </si>
   <si>
@@ -485,6 +482,9 @@
   </si>
   <si>
     <t>FR_A0100</t>
+  </si>
+  <si>
+    <t>Steel plate (thickness 1,5mm)</t>
   </si>
 </sst>
 </file>
@@ -920,8 +920,8 @@
   <dimension ref="A1:G63"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="C1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A38" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C23" sqref="A23:XFD23"/>
+      <pane ySplit="1" topLeftCell="A46" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E63" sqref="E63"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -971,20 +971,20 @@
       <c r="E2" s="3"/>
       <c r="F2" s="3"/>
       <c r="G2" s="3" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="4"/>
       <c r="B3" s="4"/>
       <c r="C3" s="5" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D3" s="5" t="s">
         <v>25</v>
       </c>
       <c r="E3" s="5" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F3" s="5">
         <v>87</v>
@@ -1003,7 +1003,7 @@
         <v>25</v>
       </c>
       <c r="E4" s="5" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F4" s="5">
         <v>1</v>
@@ -1022,7 +1022,7 @@
         <v>25</v>
       </c>
       <c r="E5" s="5" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F5" s="5">
         <v>2</v>
@@ -1035,7 +1035,7 @@
       <c r="A6" s="4"/>
       <c r="B6" s="4"/>
       <c r="C6" s="5" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D6" s="5" t="s">
         <v>25</v>
@@ -1052,7 +1052,7 @@
       <c r="A7" s="4"/>
       <c r="B7" s="4"/>
       <c r="C7" s="5" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D7" s="5" t="s">
         <v>25</v>
@@ -1062,7 +1062,7 @@
         <v>1</v>
       </c>
       <c r="G7" s="5" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="8" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1075,13 +1075,13 @@
         <v>25</v>
       </c>
       <c r="E8" s="5" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F8" s="5">
         <v>2</v>
       </c>
       <c r="G8" s="5" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="9" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -1096,24 +1096,24 @@
       <c r="E9" s="3"/>
       <c r="F9" s="3"/>
       <c r="G9" s="3" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="10" spans="1:7" ht="39.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="4" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C10" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="D10" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="E10" s="5" t="s">
         <v>79</v>
-      </c>
-      <c r="D10" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="E10" s="5" t="s">
-        <v>80</v>
       </c>
       <c r="F10" s="5">
         <v>32</v>
@@ -1126,13 +1126,13 @@
       <c r="A11" s="4"/>
       <c r="B11" s="4"/>
       <c r="C11" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="D11" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="E11" s="5" t="s">
         <v>81</v>
-      </c>
-      <c r="D11" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="E11" s="5" t="s">
-        <v>82</v>
       </c>
       <c r="F11" s="5">
         <v>2</v>
@@ -1145,13 +1145,13 @@
       <c r="A12" s="4"/>
       <c r="B12" s="4"/>
       <c r="C12" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="D12" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="E12" s="5" t="s">
         <v>92</v>
-      </c>
-      <c r="D12" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="E12" s="5" t="s">
-        <v>93</v>
       </c>
       <c r="F12" s="5">
         <v>2</v>
@@ -1164,13 +1164,13 @@
       <c r="A13" s="4"/>
       <c r="B13" s="4"/>
       <c r="C13" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="D13" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="E13" s="5" t="s">
         <v>83</v>
-      </c>
-      <c r="D13" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="E13" s="5" t="s">
-        <v>84</v>
       </c>
       <c r="F13" s="5">
         <v>4</v>
@@ -1183,13 +1183,13 @@
       <c r="A14" s="4"/>
       <c r="B14" s="4"/>
       <c r="C14" s="5" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D14" s="5" t="s">
         <v>25</v>
       </c>
       <c r="E14" s="5" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="F14" s="5">
         <v>2</v>
@@ -1202,13 +1202,13 @@
       <c r="A15" s="4"/>
       <c r="B15" s="4"/>
       <c r="C15" s="5" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D15" s="5" t="s">
         <v>25</v>
       </c>
       <c r="E15" s="5" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="F15" s="5">
         <v>2</v>
@@ -1221,19 +1221,19 @@
       <c r="A16" s="4"/>
       <c r="B16" s="4"/>
       <c r="C16" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="D16" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="E16" s="5" t="s">
         <v>88</v>
-      </c>
-      <c r="D16" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="E16" s="5" t="s">
-        <v>89</v>
       </c>
       <c r="F16" s="5">
         <v>2</v>
       </c>
       <c r="G16" s="5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="17" spans="1:7" s="8" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1248,10 +1248,10 @@
     <row r="18" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="4"/>
       <c r="B18" s="4" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C18" s="5" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D18" s="5" t="s">
         <v>25</v>
@@ -1261,14 +1261,14 @@
         <v>2</v>
       </c>
       <c r="G18" s="5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="19" spans="1:7" ht="27" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="4"/>
       <c r="B19" s="4"/>
       <c r="C19" s="5" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="D19" s="5" t="s">
         <v>25</v>
@@ -1278,14 +1278,14 @@
         <v>4</v>
       </c>
       <c r="G19" s="5" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="20" spans="1:7" ht="27" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="4"/>
       <c r="B20" s="4"/>
       <c r="C20" s="5" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D20" s="5" t="s">
         <v>25</v>
@@ -1295,14 +1295,14 @@
         <v>4</v>
       </c>
       <c r="G20" s="5" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="21" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" s="4"/>
       <c r="B21" s="4"/>
       <c r="C21" s="5" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D21" s="5" t="s">
         <v>25</v>
@@ -1312,14 +1312,14 @@
         <v>3</v>
       </c>
       <c r="G21" s="5" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="22" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A22" s="4"/>
       <c r="B22" s="4"/>
       <c r="C22" s="5" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D22" s="5" t="s">
         <v>25</v>
@@ -1329,14 +1329,14 @@
         <v>4</v>
       </c>
       <c r="G22" s="5" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="23" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A23" s="4"/>
       <c r="B23" s="4"/>
       <c r="C23" s="5" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="D23" s="5" t="s">
         <v>25</v>
@@ -1346,14 +1346,14 @@
         <v>2</v>
       </c>
       <c r="G23" s="5" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="24" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A24" s="4"/>
       <c r="B24" s="4"/>
       <c r="C24" s="5" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D24" s="5" t="s">
         <v>25</v>
@@ -1363,14 +1363,14 @@
         <v>1</v>
       </c>
       <c r="G24" s="5" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="25" spans="1:7" ht="27" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A25" s="4"/>
       <c r="B25" s="4"/>
       <c r="C25" s="5" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D25" s="5" t="s">
         <v>25</v>
@@ -1380,14 +1380,14 @@
         <v>1</v>
       </c>
       <c r="G25" s="5" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="26" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A26" s="4"/>
       <c r="B26" s="4"/>
       <c r="C26" s="5" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D26" s="5" t="s">
         <v>25</v>
@@ -1397,14 +1397,14 @@
         <v>1</v>
       </c>
       <c r="G26" s="5" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="27" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A27" s="4"/>
       <c r="B27" s="4"/>
       <c r="C27" s="5" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D27" s="5" t="s">
         <v>25</v>
@@ -1414,14 +1414,14 @@
         <v>1</v>
       </c>
       <c r="G27" s="5" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="28" spans="1:7" ht="27" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A28" s="4"/>
       <c r="B28" s="4"/>
       <c r="C28" s="5" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D28" s="5" t="s">
         <v>25</v>
@@ -1431,14 +1431,14 @@
         <v>1</v>
       </c>
       <c r="G28" s="5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="29" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A29" s="4"/>
       <c r="B29" s="4"/>
       <c r="C29" s="5" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D29" s="5" t="s">
         <v>25</v>
@@ -1448,14 +1448,14 @@
         <v>1</v>
       </c>
       <c r="G29" s="5" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="30" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A30" s="4"/>
       <c r="B30" s="4"/>
       <c r="C30" s="5" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D30" s="5" t="s">
         <v>25</v>
@@ -1465,14 +1465,14 @@
         <v>3</v>
       </c>
       <c r="G30" s="5" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="31" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A31" s="4"/>
       <c r="B31" s="4"/>
       <c r="C31" s="5" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D31" s="5" t="s">
         <v>25</v>
@@ -1482,14 +1482,14 @@
         <v>1</v>
       </c>
       <c r="G31" s="5" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="32" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A32" s="4"/>
       <c r="B32" s="4"/>
       <c r="C32" s="5" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D32" s="5" t="s">
         <v>25</v>
@@ -1499,7 +1499,7 @@
         <v>2</v>
       </c>
       <c r="G32" s="5" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="33" spans="1:7" s="8" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1514,10 +1514,10 @@
     <row r="34" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A34" s="4"/>
       <c r="B34" s="4" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C34" s="5" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D34" s="5" t="s">
         <v>25</v>
@@ -1527,14 +1527,14 @@
         <v>2</v>
       </c>
       <c r="G34" s="5" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="35" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A35" s="4"/>
       <c r="B35" s="4"/>
       <c r="C35" s="5" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D35" s="5" t="s">
         <v>25</v>
@@ -1544,14 +1544,14 @@
         <v>1</v>
       </c>
       <c r="G35" s="5" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="36" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A36" s="4"/>
       <c r="B36" s="4"/>
       <c r="C36" s="5" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D36" s="5" t="s">
         <v>25</v>
@@ -1561,14 +1561,14 @@
         <v>2</v>
       </c>
       <c r="G36" s="5" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="37" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A37" s="4"/>
       <c r="B37" s="4"/>
       <c r="C37" s="5" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D37" s="5" t="s">
         <v>25</v>
@@ -1578,14 +1578,14 @@
         <v>2</v>
       </c>
       <c r="G37" s="5" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="38" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A38" s="4"/>
       <c r="B38" s="4"/>
       <c r="C38" s="5" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D38" s="5" t="s">
         <v>25</v>
@@ -1595,14 +1595,14 @@
         <v>1</v>
       </c>
       <c r="G38" s="5" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="39" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A39" s="4"/>
       <c r="B39" s="4"/>
       <c r="C39" s="5" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D39" s="5" t="s">
         <v>25</v>
@@ -1612,14 +1612,14 @@
         <v>3</v>
       </c>
       <c r="G39" s="5" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="40" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A40" s="4"/>
       <c r="B40" s="4"/>
       <c r="C40" s="5" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D40" s="5" t="s">
         <v>25</v>
@@ -1629,14 +1629,14 @@
         <v>4</v>
       </c>
       <c r="G40" s="5" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="41" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A41" s="4"/>
       <c r="B41" s="4"/>
       <c r="C41" s="5" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D41" s="5" t="s">
         <v>25</v>
@@ -1646,14 +1646,14 @@
         <v>1</v>
       </c>
       <c r="G41" s="5" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="42" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A42" s="4"/>
       <c r="B42" s="4"/>
       <c r="C42" s="5" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D42" s="5" t="s">
         <v>25</v>
@@ -1663,14 +1663,14 @@
         <v>1</v>
       </c>
       <c r="G42" s="5" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="43" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A43" s="4"/>
       <c r="B43" s="4"/>
       <c r="C43" s="5" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D43" s="5" t="s">
         <v>25</v>
@@ -1680,7 +1680,7 @@
         <v>4</v>
       </c>
       <c r="G43" s="5" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="44" spans="1:7" s="8" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1695,10 +1695,10 @@
     <row r="45" spans="1:7" s="9" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A45" s="4"/>
       <c r="B45" s="4" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C45" s="5" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D45" s="5" t="s">
         <v>25</v>
@@ -1708,33 +1708,33 @@
         <v>2</v>
       </c>
       <c r="G45" s="5" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="46" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A46" s="4"/>
       <c r="B46" s="4"/>
       <c r="C46" s="5" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D46" s="5" t="s">
         <v>25</v>
       </c>
       <c r="E46" s="5" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="F46" s="5">
         <v>2</v>
       </c>
       <c r="G46" s="5" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="47" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A47" s="4"/>
       <c r="B47" s="4"/>
       <c r="C47" s="5" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D47" s="5" t="s">
         <v>25</v>
@@ -1744,14 +1744,14 @@
         <v>6</v>
       </c>
       <c r="G47" s="5" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="48" spans="1:7" ht="27" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A48" s="4"/>
       <c r="B48" s="4"/>
       <c r="C48" s="5" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="D48" s="5" t="s">
         <v>25</v>
@@ -1761,14 +1761,14 @@
         <v>2</v>
       </c>
       <c r="G48" s="5" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="49" spans="1:7" ht="27" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A49" s="4"/>
       <c r="B49" s="4"/>
       <c r="C49" s="5" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D49" s="5" t="s">
         <v>25</v>
@@ -1778,14 +1778,14 @@
         <v>2</v>
       </c>
       <c r="G49" s="5" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="50" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A50" s="4"/>
       <c r="B50" s="4"/>
       <c r="C50" s="5" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D50" s="5" t="s">
         <v>25</v>
@@ -1795,14 +1795,14 @@
         <v>4</v>
       </c>
       <c r="G50" s="5" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="51" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A51" s="4"/>
       <c r="B51" s="4"/>
       <c r="C51" s="5" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="D51" s="5" t="s">
         <v>25</v>
@@ -1812,14 +1812,14 @@
         <v>4</v>
       </c>
       <c r="G51" s="5" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="52" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A52" s="4"/>
       <c r="B52" s="4"/>
       <c r="C52" s="5" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D52" s="5" t="s">
         <v>25</v>
@@ -1829,14 +1829,14 @@
         <v>2</v>
       </c>
       <c r="G52" s="5" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="53" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A53" s="4"/>
       <c r="B53" s="4"/>
       <c r="C53" s="5" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="D53" s="5" t="s">
         <v>25</v>
@@ -1846,14 +1846,14 @@
         <v>1</v>
       </c>
       <c r="G53" s="5" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="54" spans="1:7" ht="27" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A54" s="4"/>
       <c r="B54" s="4"/>
       <c r="C54" s="5" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D54" s="5" t="s">
         <v>25</v>
@@ -1863,14 +1863,14 @@
         <v>1</v>
       </c>
       <c r="G54" s="5" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="55" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A55" s="4"/>
       <c r="B55" s="4"/>
       <c r="C55" s="5" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D55" s="5" t="s">
         <v>25</v>
@@ -1880,14 +1880,14 @@
         <v>4</v>
       </c>
       <c r="G55" s="5" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="56" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A56" s="4"/>
       <c r="B56" s="4"/>
       <c r="C56" s="5" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D56" s="5" t="s">
         <v>25</v>
@@ -1897,14 +1897,14 @@
         <v>8</v>
       </c>
       <c r="G56" s="5" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="57" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A57" s="4"/>
       <c r="B57" s="4"/>
       <c r="C57" s="5" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D57" s="5" t="s">
         <v>25</v>
@@ -1914,14 +1914,14 @@
         <v>2</v>
       </c>
       <c r="G57" s="5" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="58" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A58" s="4"/>
       <c r="B58" s="4"/>
       <c r="C58" s="5" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D58" s="5" t="s">
         <v>25</v>
@@ -1931,14 +1931,14 @@
         <v>12</v>
       </c>
       <c r="G58" s="5" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="59" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A59" s="4"/>
       <c r="B59" s="4"/>
       <c r="C59" s="5" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D59" s="5" t="s">
         <v>25</v>
@@ -1948,14 +1948,14 @@
         <v>1</v>
       </c>
       <c r="G59" s="5" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="60" spans="1:7" ht="27" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A60" s="4"/>
       <c r="B60" s="4"/>
       <c r="C60" s="5" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D60" s="5" t="s">
         <v>25</v>
@@ -1965,7 +1965,7 @@
         <v>1</v>
       </c>
       <c r="G60" s="5" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="61" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -2012,7 +2012,7 @@
         <v>25</v>
       </c>
       <c r="E63" s="5" t="s">
-        <v>31</v>
+        <v>144</v>
       </c>
       <c r="F63" s="5">
         <v>1</v>
